--- a/entry-task/cur_symbols/c_symbols.xlsx
+++ b/entry-task/cur_symbols/c_symbols.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="currency_symbols_raw" sheetId="1" r:id="rId1"/>
     <sheet name="clean_export" sheetId="2" r:id="rId2"/>
+    <sheet name="wiki_2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="797">
   <si>
     <t>MKD</t>
   </si>
@@ -821,6 +822,1596 @@
   </si>
   <si>
     <t>United States dollar</t>
+  </si>
+  <si>
+    <t> Abkhazia</t>
+  </si>
+  <si>
+    <t>Abkhazian apsar[D]</t>
+  </si>
+  <si>
+    <t>(none)</t>
+  </si>
+  <si>
+    <t>Russian ruble</t>
+  </si>
+  <si>
+    <t>RUB</t>
+  </si>
+  <si>
+    <t>Kopek</t>
+  </si>
+  <si>
+    <t> Afghanistan</t>
+  </si>
+  <si>
+    <t>Pul</t>
+  </si>
+  <si>
+    <t> Akrotiri and Dhekelia</t>
+  </si>
+  <si>
+    <t>Cent</t>
+  </si>
+  <si>
+    <t> Albania</t>
+  </si>
+  <si>
+    <t>Qindarkë</t>
+  </si>
+  <si>
+    <t> Alderney</t>
+  </si>
+  <si>
+    <t>Alderney pound[D]</t>
+  </si>
+  <si>
+    <t>Penny</t>
+  </si>
+  <si>
+    <t>British pound[E]</t>
+  </si>
+  <si>
+    <t>Guernsey pound</t>
+  </si>
+  <si>
+    <t>GGP[F]</t>
+  </si>
+  <si>
+    <t> Algeria</t>
+  </si>
+  <si>
+    <t>د.ج</t>
+  </si>
+  <si>
+    <t>Santeem</t>
+  </si>
+  <si>
+    <t> Andorra</t>
+  </si>
+  <si>
+    <t> Angola</t>
+  </si>
+  <si>
+    <t>Cêntimo</t>
+  </si>
+  <si>
+    <t> Anguilla</t>
+  </si>
+  <si>
+    <t>East Caribbean dollar</t>
+  </si>
+  <si>
+    <t>XCD</t>
+  </si>
+  <si>
+    <t> Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t> Argentina</t>
+  </si>
+  <si>
+    <t>Argentine peso</t>
+  </si>
+  <si>
+    <t>ARS</t>
+  </si>
+  <si>
+    <t>Centavo</t>
+  </si>
+  <si>
+    <t> Armenia</t>
+  </si>
+  <si>
+    <t>Armenian dram</t>
+  </si>
+  <si>
+    <t>Armenian dram sign.svg</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>Luma</t>
+  </si>
+  <si>
+    <t> Aruba</t>
+  </si>
+  <si>
+    <t>United KingdomAscension Island</t>
+  </si>
+  <si>
+    <t>Ascension pound[D]</t>
+  </si>
+  <si>
+    <t>Saint Helena pound</t>
+  </si>
+  <si>
+    <t>SHP</t>
+  </si>
+  <si>
+    <t> Australia</t>
+  </si>
+  <si>
+    <t>Australian dollar</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t> Austria</t>
+  </si>
+  <si>
+    <t> Azerbaijan</t>
+  </si>
+  <si>
+    <t>Azerbaijani manat</t>
+  </si>
+  <si>
+    <t>Azeri manat symbol.svg</t>
+  </si>
+  <si>
+    <t>AZN</t>
+  </si>
+  <si>
+    <t>Qəpik</t>
+  </si>
+  <si>
+    <t> Bahamas, The</t>
+  </si>
+  <si>
+    <t>Bahamian dollar</t>
+  </si>
+  <si>
+    <t>BSD</t>
+  </si>
+  <si>
+    <t> Bahrain</t>
+  </si>
+  <si>
+    <t>Fils</t>
+  </si>
+  <si>
+    <t> Bangladesh</t>
+  </si>
+  <si>
+    <t>Paisa</t>
+  </si>
+  <si>
+    <t> Barbados</t>
+  </si>
+  <si>
+    <t>Barbadian dollar</t>
+  </si>
+  <si>
+    <t>BBD</t>
+  </si>
+  <si>
+    <t> Belarus</t>
+  </si>
+  <si>
+    <t>Belarusian ruble</t>
+  </si>
+  <si>
+    <t>BYR</t>
+  </si>
+  <si>
+    <t>Kapyeyka</t>
+  </si>
+  <si>
+    <t> Belgium</t>
+  </si>
+  <si>
+    <t> Belize</t>
+  </si>
+  <si>
+    <t>Belize dollar</t>
+  </si>
+  <si>
+    <t>BZD</t>
+  </si>
+  <si>
+    <t> Benin</t>
+  </si>
+  <si>
+    <t>Centime</t>
+  </si>
+  <si>
+    <t> Bermuda</t>
+  </si>
+  <si>
+    <t>Bermudian dollar</t>
+  </si>
+  <si>
+    <t>BMD</t>
+  </si>
+  <si>
+    <t> Bhutan</t>
+  </si>
+  <si>
+    <t>Nu.</t>
+  </si>
+  <si>
+    <t>Chetrum</t>
+  </si>
+  <si>
+    <t> Bolivia</t>
+  </si>
+  <si>
+    <t> Bonaire</t>
+  </si>
+  <si>
+    <t> Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>KM or КМ[G]</t>
+  </si>
+  <si>
+    <t>Fening</t>
+  </si>
+  <si>
+    <t> Botswana</t>
+  </si>
+  <si>
+    <t>Thebe</t>
+  </si>
+  <si>
+    <t> Brazil</t>
+  </si>
+  <si>
+    <t> British Indian Ocean Territory</t>
+  </si>
+  <si>
+    <t>Cent[A]</t>
+  </si>
+  <si>
+    <t> British Virgin Islands</t>
+  </si>
+  <si>
+    <t>British Virgin Islands dollar[D]</t>
+  </si>
+  <si>
+    <t> Brunei</t>
+  </si>
+  <si>
+    <t>Brunei dollar</t>
+  </si>
+  <si>
+    <t>BND</t>
+  </si>
+  <si>
+    <t>Sen</t>
+  </si>
+  <si>
+    <t>Singapore dollar</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t> Bulgaria</t>
+  </si>
+  <si>
+    <t>Stotinka</t>
+  </si>
+  <si>
+    <t> Burkina Faso</t>
+  </si>
+  <si>
+    <t> Burundi</t>
+  </si>
+  <si>
+    <t> Cambodia</t>
+  </si>
+  <si>
+    <t> Cameroon</t>
+  </si>
+  <si>
+    <t> Canada</t>
+  </si>
+  <si>
+    <t>Canadian dollar</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t> Cape Verde</t>
+  </si>
+  <si>
+    <t>Esc or $</t>
+  </si>
+  <si>
+    <t> Cayman Islands</t>
+  </si>
+  <si>
+    <t>Cayman Islands dollar</t>
+  </si>
+  <si>
+    <t>KYD</t>
+  </si>
+  <si>
+    <t> Central African Republic</t>
+  </si>
+  <si>
+    <t> Chad</t>
+  </si>
+  <si>
+    <t> Chile</t>
+  </si>
+  <si>
+    <t>Chilean peso</t>
+  </si>
+  <si>
+    <t>CLP</t>
+  </si>
+  <si>
+    <t> China</t>
+  </si>
+  <si>
+    <t>Chinese yuan</t>
+  </si>
+  <si>
+    <t>¥ or 元</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>Fen[H]</t>
+  </si>
+  <si>
+    <t> Cocos (Keeling) Islands</t>
+  </si>
+  <si>
+    <t> Colombia</t>
+  </si>
+  <si>
+    <t>Colombian peso</t>
+  </si>
+  <si>
+    <t>COP</t>
+  </si>
+  <si>
+    <t> Comoros</t>
+  </si>
+  <si>
+    <t> Congo, Democratic Republic of the</t>
+  </si>
+  <si>
+    <t>Congolese franc</t>
+  </si>
+  <si>
+    <t>CDF</t>
+  </si>
+  <si>
+    <t> Congo, Republic of the</t>
+  </si>
+  <si>
+    <t> Cook Islands</t>
+  </si>
+  <si>
+    <t>New Zealand dollar</t>
+  </si>
+  <si>
+    <t>NZD</t>
+  </si>
+  <si>
+    <t>Cook Islands dollar</t>
+  </si>
+  <si>
+    <t> Costa Rica</t>
+  </si>
+  <si>
+    <t>Céntimo</t>
+  </si>
+  <si>
+    <t> Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t> Croatia</t>
+  </si>
+  <si>
+    <t>Lipa</t>
+  </si>
+  <si>
+    <t> Cuba</t>
+  </si>
+  <si>
+    <t>Cuban convertible peso</t>
+  </si>
+  <si>
+    <t>CUC</t>
+  </si>
+  <si>
+    <t>Cuban peso</t>
+  </si>
+  <si>
+    <t>CUP</t>
+  </si>
+  <si>
+    <t> Curaçao</t>
+  </si>
+  <si>
+    <t>Netherlands Antillean guilder</t>
+  </si>
+  <si>
+    <t>ANG</t>
+  </si>
+  <si>
+    <t> Cyprus</t>
+  </si>
+  <si>
+    <t> Czech Republic</t>
+  </si>
+  <si>
+    <t>Haléř</t>
+  </si>
+  <si>
+    <t> Denmark</t>
+  </si>
+  <si>
+    <t>Øre</t>
+  </si>
+  <si>
+    <t> Djibouti</t>
+  </si>
+  <si>
+    <t>Djiboutian franc</t>
+  </si>
+  <si>
+    <t>DJF</t>
+  </si>
+  <si>
+    <t> Dominica</t>
+  </si>
+  <si>
+    <t> Dominican Republic</t>
+  </si>
+  <si>
+    <t>Dominican peso</t>
+  </si>
+  <si>
+    <t>DOP</t>
+  </si>
+  <si>
+    <t> East Timor</t>
+  </si>
+  <si>
+    <t>Centavo[I]</t>
+  </si>
+  <si>
+    <t> Ecuador</t>
+  </si>
+  <si>
+    <t> Egypt</t>
+  </si>
+  <si>
+    <t>£ or ج.م</t>
+  </si>
+  <si>
+    <t>Piastre[B]</t>
+  </si>
+  <si>
+    <t> El Salvador</t>
+  </si>
+  <si>
+    <t> Equatorial Guinea</t>
+  </si>
+  <si>
+    <t> Eritrea</t>
+  </si>
+  <si>
+    <t> Estonia</t>
+  </si>
+  <si>
+    <t> Ethiopia</t>
+  </si>
+  <si>
+    <t>Santim</t>
+  </si>
+  <si>
+    <t> Falkland Islands</t>
+  </si>
+  <si>
+    <t>Falkland Islands pound</t>
+  </si>
+  <si>
+    <t>FKP</t>
+  </si>
+  <si>
+    <t> Faroe Islands</t>
+  </si>
+  <si>
+    <t>Faroese króna</t>
+  </si>
+  <si>
+    <t>Oyra</t>
+  </si>
+  <si>
+    <t> Fiji</t>
+  </si>
+  <si>
+    <t>Fijian dollar</t>
+  </si>
+  <si>
+    <t>FJD</t>
+  </si>
+  <si>
+    <t> Finland</t>
+  </si>
+  <si>
+    <t> France</t>
+  </si>
+  <si>
+    <t> French Polynesia</t>
+  </si>
+  <si>
+    <t>CFP franc</t>
+  </si>
+  <si>
+    <t>XPF</t>
+  </si>
+  <si>
+    <t> Gabon</t>
+  </si>
+  <si>
+    <t> Gambia, The</t>
+  </si>
+  <si>
+    <t>Butut</t>
+  </si>
+  <si>
+    <t> Georgia</t>
+  </si>
+  <si>
+    <t>Georgian lari</t>
+  </si>
+  <si>
+    <t>ლ</t>
+  </si>
+  <si>
+    <t>GEL</t>
+  </si>
+  <si>
+    <t>Tetri</t>
+  </si>
+  <si>
+    <t> Germany</t>
+  </si>
+  <si>
+    <t> Ghana</t>
+  </si>
+  <si>
+    <t>Ghana cedi</t>
+  </si>
+  <si>
+    <t>₵</t>
+  </si>
+  <si>
+    <t>Pesewa</t>
+  </si>
+  <si>
+    <t> Gibraltar</t>
+  </si>
+  <si>
+    <t>Gibraltar pound</t>
+  </si>
+  <si>
+    <t>GIP</t>
+  </si>
+  <si>
+    <t> Greece</t>
+  </si>
+  <si>
+    <t> Grenada</t>
+  </si>
+  <si>
+    <t> Guatemala</t>
+  </si>
+  <si>
+    <t> Guernsey</t>
+  </si>
+  <si>
+    <t> Guinea</t>
+  </si>
+  <si>
+    <t>Guinean franc</t>
+  </si>
+  <si>
+    <t>GNF</t>
+  </si>
+  <si>
+    <t> Guinea-Bissau</t>
+  </si>
+  <si>
+    <t> Guyana</t>
+  </si>
+  <si>
+    <t>Guyanese dollar</t>
+  </si>
+  <si>
+    <t>GYD</t>
+  </si>
+  <si>
+    <t> Haiti</t>
+  </si>
+  <si>
+    <t> Honduras</t>
+  </si>
+  <si>
+    <t>Honduran lempira</t>
+  </si>
+  <si>
+    <t>HNL</t>
+  </si>
+  <si>
+    <t> Hong Kong</t>
+  </si>
+  <si>
+    <t>Hong Kong dollar</t>
+  </si>
+  <si>
+    <t>HKD</t>
+  </si>
+  <si>
+    <t> Hungary</t>
+  </si>
+  <si>
+    <t>Fillér</t>
+  </si>
+  <si>
+    <t> Iceland</t>
+  </si>
+  <si>
+    <t>Icelandic króna</t>
+  </si>
+  <si>
+    <t>ISK</t>
+  </si>
+  <si>
+    <t>Eyrir</t>
+  </si>
+  <si>
+    <t> India</t>
+  </si>
+  <si>
+    <t> Indonesia</t>
+  </si>
+  <si>
+    <t> Iran</t>
+  </si>
+  <si>
+    <t>Iranian rial</t>
+  </si>
+  <si>
+    <t>﷼</t>
+  </si>
+  <si>
+    <t>IRR</t>
+  </si>
+  <si>
+    <t>Dinar</t>
+  </si>
+  <si>
+    <t> Iraq</t>
+  </si>
+  <si>
+    <t>ع.د</t>
+  </si>
+  <si>
+    <t> Ireland</t>
+  </si>
+  <si>
+    <t> Isle of Man</t>
+  </si>
+  <si>
+    <t>Manx pound</t>
+  </si>
+  <si>
+    <t>IMP[F]</t>
+  </si>
+  <si>
+    <t> Israel</t>
+  </si>
+  <si>
+    <t>Agora</t>
+  </si>
+  <si>
+    <t> Italy</t>
+  </si>
+  <si>
+    <t> Jamaica</t>
+  </si>
+  <si>
+    <t>Jamaican dollar</t>
+  </si>
+  <si>
+    <t>JMD</t>
+  </si>
+  <si>
+    <t> Japan</t>
+  </si>
+  <si>
+    <t>Sen[C]</t>
+  </si>
+  <si>
+    <t> Jersey</t>
+  </si>
+  <si>
+    <t>Jersey pound</t>
+  </si>
+  <si>
+    <t>JEP[F]</t>
+  </si>
+  <si>
+    <t> Jordan</t>
+  </si>
+  <si>
+    <t>د.ا</t>
+  </si>
+  <si>
+    <t>Piastre[J]</t>
+  </si>
+  <si>
+    <t> Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kazakhstani tenge symbol.svg</t>
+  </si>
+  <si>
+    <t>Tïın</t>
+  </si>
+  <si>
+    <t> Kenya</t>
+  </si>
+  <si>
+    <t>Sh</t>
+  </si>
+  <si>
+    <t> Kiribati</t>
+  </si>
+  <si>
+    <t>Kiribati dollar[D]</t>
+  </si>
+  <si>
+    <t> Korea, North</t>
+  </si>
+  <si>
+    <t>Chon</t>
+  </si>
+  <si>
+    <t> Korea, South</t>
+  </si>
+  <si>
+    <t>South Korean won</t>
+  </si>
+  <si>
+    <t>KRW</t>
+  </si>
+  <si>
+    <t>Jeon</t>
+  </si>
+  <si>
+    <t> Kosovo</t>
+  </si>
+  <si>
+    <t> Kuwait</t>
+  </si>
+  <si>
+    <t> Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>лв[K]</t>
+  </si>
+  <si>
+    <t>Tyiyn</t>
+  </si>
+  <si>
+    <t> Laos</t>
+  </si>
+  <si>
+    <t>Att</t>
+  </si>
+  <si>
+    <t> Latvia</t>
+  </si>
+  <si>
+    <t> Lebanon</t>
+  </si>
+  <si>
+    <t>ل.ل</t>
+  </si>
+  <si>
+    <t>Piastre</t>
+  </si>
+  <si>
+    <t> Lesotho</t>
+  </si>
+  <si>
+    <t>Sente</t>
+  </si>
+  <si>
+    <t> Liberia</t>
+  </si>
+  <si>
+    <t>Liberian dollar</t>
+  </si>
+  <si>
+    <t>LRD</t>
+  </si>
+  <si>
+    <t> Libya</t>
+  </si>
+  <si>
+    <t>Dirham</t>
+  </si>
+  <si>
+    <t> Liechtenstein</t>
+  </si>
+  <si>
+    <t>Swiss franc</t>
+  </si>
+  <si>
+    <t>CHF</t>
+  </si>
+  <si>
+    <t>Rappen</t>
+  </si>
+  <si>
+    <t> Lithuania</t>
+  </si>
+  <si>
+    <t> Luxembourg</t>
+  </si>
+  <si>
+    <t> Macau</t>
+  </si>
+  <si>
+    <t>Avo</t>
+  </si>
+  <si>
+    <t> Macedonia, Republic of</t>
+  </si>
+  <si>
+    <t>Deni</t>
+  </si>
+  <si>
+    <t> Madagascar</t>
+  </si>
+  <si>
+    <t>Iraimbilanja</t>
+  </si>
+  <si>
+    <t> Malawi</t>
+  </si>
+  <si>
+    <t>Tambala</t>
+  </si>
+  <si>
+    <t> Malaysia</t>
+  </si>
+  <si>
+    <t> Maldives</t>
+  </si>
+  <si>
+    <t>.ރ</t>
+  </si>
+  <si>
+    <t>Laari</t>
+  </si>
+  <si>
+    <t> Mali</t>
+  </si>
+  <si>
+    <t> Malta</t>
+  </si>
+  <si>
+    <t> Marshall Islands</t>
+  </si>
+  <si>
+    <t> Mauritania</t>
+  </si>
+  <si>
+    <t>Khoums</t>
+  </si>
+  <si>
+    <t> Mauritius</t>
+  </si>
+  <si>
+    <t> Mexico</t>
+  </si>
+  <si>
+    <t>Mexican peso</t>
+  </si>
+  <si>
+    <t>MXN</t>
+  </si>
+  <si>
+    <t> Micronesia</t>
+  </si>
+  <si>
+    <t>Micronesian dollar[D]</t>
+  </si>
+  <si>
+    <t> Moldova</t>
+  </si>
+  <si>
+    <t>Moldovan leu</t>
+  </si>
+  <si>
+    <t>MDL</t>
+  </si>
+  <si>
+    <t>Ban</t>
+  </si>
+  <si>
+    <t> Monaco</t>
+  </si>
+  <si>
+    <t> Mongolia</t>
+  </si>
+  <si>
+    <t>Möngö</t>
+  </si>
+  <si>
+    <t> Montenegro</t>
+  </si>
+  <si>
+    <t> Montserrat</t>
+  </si>
+  <si>
+    <t> Morocco</t>
+  </si>
+  <si>
+    <t> Mozambique</t>
+  </si>
+  <si>
+    <t>Mozambican metical</t>
+  </si>
+  <si>
+    <t> Myanmar</t>
+  </si>
+  <si>
+    <t>Ks</t>
+  </si>
+  <si>
+    <t>Pya</t>
+  </si>
+  <si>
+    <t> Nagorno-Karabakh Republic</t>
+  </si>
+  <si>
+    <t>Nagorno-Karabakh dram[D]</t>
+  </si>
+  <si>
+    <t>դր.</t>
+  </si>
+  <si>
+    <t> Namibia</t>
+  </si>
+  <si>
+    <t>Namibian dollar</t>
+  </si>
+  <si>
+    <t>NAD</t>
+  </si>
+  <si>
+    <t> Nauru</t>
+  </si>
+  <si>
+    <t>Nauruan dollar[D]</t>
+  </si>
+  <si>
+    <t>   Nepal</t>
+  </si>
+  <si>
+    <t>Nepalese rupee</t>
+  </si>
+  <si>
+    <t>NPR</t>
+  </si>
+  <si>
+    <t> Netherlands[L]</t>
+  </si>
+  <si>
+    <t> New Caledonia</t>
+  </si>
+  <si>
+    <t> New Zealand</t>
+  </si>
+  <si>
+    <t> Nicaragua</t>
+  </si>
+  <si>
+    <t>Nicaraguan córdoba</t>
+  </si>
+  <si>
+    <t>C$</t>
+  </si>
+  <si>
+    <t>NIO</t>
+  </si>
+  <si>
+    <t> Niger</t>
+  </si>
+  <si>
+    <t> Nigeria</t>
+  </si>
+  <si>
+    <t>Kobo</t>
+  </si>
+  <si>
+    <t> Niue</t>
+  </si>
+  <si>
+    <t>Niue dollar[D]</t>
+  </si>
+  <si>
+    <t> Northern Cyprus</t>
+  </si>
+  <si>
+    <t>Turkish lira</t>
+  </si>
+  <si>
+    <t>Turkish lira symbol black.svg</t>
+  </si>
+  <si>
+    <t>TRY</t>
+  </si>
+  <si>
+    <t>Kuruş</t>
+  </si>
+  <si>
+    <t> Norway</t>
+  </si>
+  <si>
+    <t>Norwegian krone</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t> Oman</t>
+  </si>
+  <si>
+    <t>Baisa</t>
+  </si>
+  <si>
+    <t> Pakistan</t>
+  </si>
+  <si>
+    <t>Pakistani rupee</t>
+  </si>
+  <si>
+    <t>PKR</t>
+  </si>
+  <si>
+    <t> Palau</t>
+  </si>
+  <si>
+    <t>Palauan dollar[D]</t>
+  </si>
+  <si>
+    <t> Palestine</t>
+  </si>
+  <si>
+    <t> Panama</t>
+  </si>
+  <si>
+    <t>Centésimo</t>
+  </si>
+  <si>
+    <t> Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Papua New Guinean kina</t>
+  </si>
+  <si>
+    <t>PGK</t>
+  </si>
+  <si>
+    <t>Toea</t>
+  </si>
+  <si>
+    <t> Paraguay</t>
+  </si>
+  <si>
+    <t> Peru</t>
+  </si>
+  <si>
+    <t> Philippines</t>
+  </si>
+  <si>
+    <t> Pitcairn Islands</t>
+  </si>
+  <si>
+    <t>Pitcairn Islands dollar[D]</t>
+  </si>
+  <si>
+    <t> Poland</t>
+  </si>
+  <si>
+    <t>Grosz</t>
+  </si>
+  <si>
+    <t> Portugal</t>
+  </si>
+  <si>
+    <t> Qatar</t>
+  </si>
+  <si>
+    <t> Romania</t>
+  </si>
+  <si>
+    <t>Romanian leu</t>
+  </si>
+  <si>
+    <t>lei</t>
+  </si>
+  <si>
+    <t>RON</t>
+  </si>
+  <si>
+    <t> Russia</t>
+  </si>
+  <si>
+    <t> Rwanda</t>
+  </si>
+  <si>
+    <t> Saba</t>
+  </si>
+  <si>
+    <t> Sahrawi Republic[M]</t>
+  </si>
+  <si>
+    <t>د. م.</t>
+  </si>
+  <si>
+    <t>Sahrawi peseta</t>
+  </si>
+  <si>
+    <t>Ptas</t>
+  </si>
+  <si>
+    <t> Saint Helena</t>
+  </si>
+  <si>
+    <t> Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t> Saint Lucia</t>
+  </si>
+  <si>
+    <t> Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t> Samoa</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Sene</t>
+  </si>
+  <si>
+    <t> San Marino</t>
+  </si>
+  <si>
+    <t> São Tomé and Príncipe</t>
+  </si>
+  <si>
+    <t> Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Saudi riyal</t>
+  </si>
+  <si>
+    <t>ر.س</t>
+  </si>
+  <si>
+    <t>SAR</t>
+  </si>
+  <si>
+    <t>Halala</t>
+  </si>
+  <si>
+    <t> Senegal</t>
+  </si>
+  <si>
+    <t> Serbia</t>
+  </si>
+  <si>
+    <t>дин. or din.</t>
+  </si>
+  <si>
+    <t>Para</t>
+  </si>
+  <si>
+    <t> Seychelles</t>
+  </si>
+  <si>
+    <t> Sierra Leone</t>
+  </si>
+  <si>
+    <t> Singapore</t>
+  </si>
+  <si>
+    <t> Sint Eustatius</t>
+  </si>
+  <si>
+    <t> Sint Maarten</t>
+  </si>
+  <si>
+    <t> Slovakia</t>
+  </si>
+  <si>
+    <t> Slovenia</t>
+  </si>
+  <si>
+    <t> Solomon Islands</t>
+  </si>
+  <si>
+    <t>Solomon Islands dollar</t>
+  </si>
+  <si>
+    <t>SBD</t>
+  </si>
+  <si>
+    <t> Somalia</t>
+  </si>
+  <si>
+    <t> Somaliland</t>
+  </si>
+  <si>
+    <t>Somaliland shilling</t>
+  </si>
+  <si>
+    <t> South Africa</t>
+  </si>
+  <si>
+    <t> South Georgia and the South Sandwich Islands</t>
+  </si>
+  <si>
+    <t>British pound</t>
+  </si>
+  <si>
+    <t>South Georgia and the South Sandwich Islands pound[D]</t>
+  </si>
+  <si>
+    <t> South Ossetia</t>
+  </si>
+  <si>
+    <t> Spain</t>
+  </si>
+  <si>
+    <t> South Sudan</t>
+  </si>
+  <si>
+    <t>South Sudanese pound</t>
+  </si>
+  <si>
+    <t>SSP</t>
+  </si>
+  <si>
+    <t> Sri Lanka</t>
+  </si>
+  <si>
+    <t>Sri Lankan rupee</t>
+  </si>
+  <si>
+    <t>Rs or රු</t>
+  </si>
+  <si>
+    <t>LKR</t>
+  </si>
+  <si>
+    <t> Sudan</t>
+  </si>
+  <si>
+    <t>Sudanese pound</t>
+  </si>
+  <si>
+    <t>ج.س.</t>
+  </si>
+  <si>
+    <t>SDG</t>
+  </si>
+  <si>
+    <t> Suriname</t>
+  </si>
+  <si>
+    <t>Surinamese dollar</t>
+  </si>
+  <si>
+    <t>SRD</t>
+  </si>
+  <si>
+    <t> Swaziland</t>
+  </si>
+  <si>
+    <t> Sweden</t>
+  </si>
+  <si>
+    <t>Swedish krona</t>
+  </si>
+  <si>
+    <t>SEK</t>
+  </si>
+  <si>
+    <t>Öre</t>
+  </si>
+  <si>
+    <t>  Switzerland</t>
+  </si>
+  <si>
+    <t>Rappen[N]</t>
+  </si>
+  <si>
+    <t> Syria</t>
+  </si>
+  <si>
+    <t>£ or ل.س</t>
+  </si>
+  <si>
+    <t> Taiwan</t>
+  </si>
+  <si>
+    <t>New Taiwan dollar</t>
+  </si>
+  <si>
+    <t>TWD</t>
+  </si>
+  <si>
+    <t> Tajikistan</t>
+  </si>
+  <si>
+    <t>Tajikistani somoni</t>
+  </si>
+  <si>
+    <t>ЅМ</t>
+  </si>
+  <si>
+    <t>TJS</t>
+  </si>
+  <si>
+    <t>Diram</t>
+  </si>
+  <si>
+    <t> Tanzania</t>
+  </si>
+  <si>
+    <t>Tanzanian shilling</t>
+  </si>
+  <si>
+    <t>TZS</t>
+  </si>
+  <si>
+    <t> Thailand</t>
+  </si>
+  <si>
+    <t>Satang</t>
+  </si>
+  <si>
+    <t> Togo</t>
+  </si>
+  <si>
+    <t> Tonga</t>
+  </si>
+  <si>
+    <t>Tongan paʻanga[O]</t>
+  </si>
+  <si>
+    <t>T$</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Seniti</t>
+  </si>
+  <si>
+    <t> Transnistria</t>
+  </si>
+  <si>
+    <t>Transnistrian ruble</t>
+  </si>
+  <si>
+    <t>р.</t>
+  </si>
+  <si>
+    <t>PRB[F]</t>
+  </si>
+  <si>
+    <t> Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago dollar</t>
+  </si>
+  <si>
+    <t>TTD</t>
+  </si>
+  <si>
+    <t> Tristan da Cunha</t>
+  </si>
+  <si>
+    <t>Tristan da Cunha pound[D]</t>
+  </si>
+  <si>
+    <t> Tunisia</t>
+  </si>
+  <si>
+    <t>Millime</t>
+  </si>
+  <si>
+    <t> Turkey</t>
+  </si>
+  <si>
+    <t> Turkmenistan</t>
+  </si>
+  <si>
+    <t>Turkmenistan manat</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>TMT</t>
+  </si>
+  <si>
+    <t>Tennesi</t>
+  </si>
+  <si>
+    <t> Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t> Tuvalu</t>
+  </si>
+  <si>
+    <t>Tuvaluan dollar</t>
+  </si>
+  <si>
+    <t> Uganda</t>
+  </si>
+  <si>
+    <t> Ukraine</t>
+  </si>
+  <si>
+    <t>Ukrainian hryvnia</t>
+  </si>
+  <si>
+    <t>₴</t>
+  </si>
+  <si>
+    <t>UAH</t>
+  </si>
+  <si>
+    <t>Kopiyka</t>
+  </si>
+  <si>
+    <t>Russian ruble[P]</t>
+  </si>
+  <si>
+    <t> United Arab Emirates</t>
+  </si>
+  <si>
+    <t> United Kingdom</t>
+  </si>
+  <si>
+    <t> United States</t>
+  </si>
+  <si>
+    <t> Uruguay</t>
+  </si>
+  <si>
+    <t>Uruguayan peso</t>
+  </si>
+  <si>
+    <t>UYU</t>
+  </si>
+  <si>
+    <t> Uzbekistan</t>
+  </si>
+  <si>
+    <t>Uzbekistani som</t>
+  </si>
+  <si>
+    <t>Tenge symbol.svg</t>
+  </si>
+  <si>
+    <t>UZS</t>
+  </si>
+  <si>
+    <t>Tiyin</t>
+  </si>
+  <si>
+    <t> Vanuatu</t>
+  </si>
+  <si>
+    <t>Vt</t>
+  </si>
+  <si>
+    <t>  Vatican City</t>
+  </si>
+  <si>
+    <t> Venezuela</t>
+  </si>
+  <si>
+    <t>Bs F</t>
+  </si>
+  <si>
+    <t> Vietnam</t>
+  </si>
+  <si>
+    <t>Vietnamese đồng</t>
+  </si>
+  <si>
+    <t>Hào[Q]</t>
+  </si>
+  <si>
+    <t> Wallis and Futuna</t>
+  </si>
+  <si>
+    <t> Yemen</t>
+  </si>
+  <si>
+    <t>Yemeni rial</t>
+  </si>
+  <si>
+    <t>YER</t>
+  </si>
+  <si>
+    <t> Zambia</t>
+  </si>
+  <si>
+    <t>Ngwee</t>
+  </si>
+  <si>
+    <t> Zimbabwe</t>
+  </si>
+  <si>
+    <t>(Zimbabwean Bond)</t>
+  </si>
+  <si>
+    <t>Cent[I][R]</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>ISO code</t>
+  </si>
+  <si>
+    <t>fractional unit</t>
+  </si>
+  <si>
+    <t>number to basic</t>
   </si>
 </sst>
 </file>
@@ -1653,9 +3244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:C88"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1703,7 +3292,7 @@
         <v/>
       </c>
       <c r="J2" t="str">
-        <f>IF(COUNTIF(A:A,A2) &gt; 1, "X", "")</f>
+        <f t="shared" ref="J2:J33" si="0">IF(COUNTIF(A:A,A2) &gt; 1, "X", "")</f>
         <v/>
       </c>
     </row>
@@ -1718,15 +3307,15 @@
         <v>83</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H63" si="0">IF(B3="","X","")</f>
+        <f t="shared" ref="H3:H63" si="1">IF(B3="","X","")</f>
         <v/>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I63" si="1">IF(LEN(A3)&lt;&gt;3,"X","")</f>
+        <f t="shared" ref="I3:I63" si="2">IF(LEN(A3)&lt;&gt;3,"X","")</f>
         <v/>
       </c>
       <c r="J3" t="str">
-        <f>IF(COUNTIF(A:A,A3) &gt; 1, "X", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1741,15 +3330,15 @@
         <v>65</v>
       </c>
       <c r="H4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J4" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J4" t="str">
-        <f>IF(COUNTIF(A:A,A4) &gt; 1, "X", "")</f>
         <v/>
       </c>
     </row>
@@ -1764,15 +3353,15 @@
         <v>171</v>
       </c>
       <c r="H5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J5" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J5" t="str">
-        <f>IF(COUNTIF(A:A,A5) &gt; 1, "X", "")</f>
         <v/>
       </c>
     </row>
@@ -1787,15 +3376,15 @@
         <v>86</v>
       </c>
       <c r="H6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J6" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J6" t="str">
-        <f>IF(COUNTIF(A:A,A6) &gt; 1, "X", "")</f>
         <v/>
       </c>
     </row>
@@ -1810,15 +3399,15 @@
         <v>180</v>
       </c>
       <c r="H7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J7" t="str">
-        <f>IF(COUNTIF(A:A,A7) &gt; 1, "X", "")</f>
         <v/>
       </c>
     </row>
@@ -1833,15 +3422,15 @@
         <v>183</v>
       </c>
       <c r="H8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J8" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J8" t="str">
-        <f>IF(COUNTIF(A:A,A8) &gt; 1, "X", "")</f>
         <v/>
       </c>
     </row>
@@ -1856,15 +3445,15 @@
         <v>102</v>
       </c>
       <c r="H9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J9" t="str">
-        <f>IF(COUNTIF(A:A,A9) &gt; 1, "X", "")</f>
         <v/>
       </c>
     </row>
@@ -1879,15 +3468,15 @@
         <v>244</v>
       </c>
       <c r="H10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J10" t="str">
-        <f>IF(COUNTIF(A:A,A10) &gt; 1, "X", "")</f>
         <v/>
       </c>
     </row>
@@ -1902,15 +3491,15 @@
         <v>162</v>
       </c>
       <c r="H11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J11" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J11" t="str">
-        <f>IF(COUNTIF(A:A,A11) &gt; 1, "X", "")</f>
         <v/>
       </c>
     </row>
@@ -1925,15 +3514,15 @@
         <v>263</v>
       </c>
       <c r="H12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J12" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J12" t="str">
-        <f>IF(COUNTIF(A:A,A12) &gt; 1, "X", "")</f>
         <v/>
       </c>
     </row>
@@ -1948,15 +3537,15 @@
         <v>71</v>
       </c>
       <c r="H13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J13" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J13" t="str">
-        <f>IF(COUNTIF(A:A,A13) &gt; 1, "X", "")</f>
         <v/>
       </c>
     </row>
@@ -1971,15 +3560,15 @@
         <v>135</v>
       </c>
       <c r="H14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J14" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J14" t="str">
-        <f>IF(COUNTIF(A:A,A14) &gt; 1, "X", "")</f>
         <v/>
       </c>
     </row>
@@ -1994,15 +3583,15 @@
         <v>74</v>
       </c>
       <c r="H15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J15" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J15" t="str">
-        <f>IF(COUNTIF(A:A,A15) &gt; 1, "X", "")</f>
         <v/>
       </c>
     </row>
@@ -2017,15 +3606,15 @@
         <v>138</v>
       </c>
       <c r="H16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J16" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J16" t="str">
-        <f>IF(COUNTIF(A:A,A16) &gt; 1, "X", "")</f>
         <v/>
       </c>
     </row>
@@ -2040,15 +3629,15 @@
         <v>192</v>
       </c>
       <c r="H17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J17" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I17" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J17" t="str">
-        <f>IF(COUNTIF(A:A,A17) &gt; 1, "X", "")</f>
         <v/>
       </c>
     </row>
@@ -2063,15 +3652,15 @@
         <v>45</v>
       </c>
       <c r="H18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J18" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I18" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J18" t="str">
-        <f>IF(COUNTIF(A:A,A18) &gt; 1, "X", "")</f>
         <v/>
       </c>
     </row>
@@ -2086,15 +3675,15 @@
         <v>247</v>
       </c>
       <c r="H19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J19" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J19" t="str">
-        <f>IF(COUNTIF(A:A,A19) &gt; 1, "X", "")</f>
         <v/>
       </c>
     </row>
@@ -2109,15 +3698,15 @@
         <v>237</v>
       </c>
       <c r="H20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J20" t="str">
-        <f>IF(COUNTIF(A:A,A20) &gt; 1, "X", "")</f>
         <v/>
       </c>
     </row>
@@ -2132,15 +3721,15 @@
         <v>80</v>
       </c>
       <c r="H21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J21" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J21" t="str">
-        <f>IF(COUNTIF(A:A,A21) &gt; 1, "X", "")</f>
         <v/>
       </c>
     </row>
@@ -2155,15 +3744,15 @@
         <v>62</v>
       </c>
       <c r="H22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J22" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J22" t="str">
-        <f>IF(COUNTIF(A:A,A22) &gt; 1, "X", "")</f>
         <v/>
       </c>
     </row>
@@ -2178,15 +3767,15 @@
         <v>159</v>
       </c>
       <c r="H23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J23" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J23" t="str">
-        <f>IF(COUNTIF(A:A,A23) &gt; 1, "X", "")</f>
         <v/>
       </c>
     </row>
@@ -2201,15 +3790,15 @@
         <v>96</v>
       </c>
       <c r="H24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J24" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J24" t="str">
-        <f>IF(COUNTIF(A:A,A24) &gt; 1, "X", "")</f>
         <v/>
       </c>
     </row>
@@ -2224,15 +3813,15 @@
         <v>35</v>
       </c>
       <c r="H25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J25" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I25" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J25" t="str">
-        <f>IF(COUNTIF(A:A,A25) &gt; 1, "X", "")</f>
         <v/>
       </c>
     </row>
@@ -2247,15 +3836,15 @@
         <v>117</v>
       </c>
       <c r="H26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J26" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J26" t="str">
-        <f>IF(COUNTIF(A:A,A26) &gt; 1, "X", "")</f>
         <v/>
       </c>
     </row>
@@ -2270,15 +3859,15 @@
         <v>56</v>
       </c>
       <c r="H27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J27" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I27" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J27" t="str">
-        <f>IF(COUNTIF(A:A,A27) &gt; 1, "X", "")</f>
         <v/>
       </c>
     </row>
@@ -2293,15 +3882,15 @@
         <v>228</v>
       </c>
       <c r="H28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J28" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J28" t="str">
-        <f>IF(COUNTIF(A:A,A28) &gt; 1, "X", "")</f>
         <v/>
       </c>
     </row>
@@ -2316,15 +3905,15 @@
         <v>47</v>
       </c>
       <c r="H29" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J29" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I29" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J29" t="str">
-        <f>IF(COUNTIF(A:A,A29) &gt; 1, "X", "")</f>
         <v/>
       </c>
     </row>
@@ -2339,15 +3928,15 @@
         <v>105</v>
       </c>
       <c r="H30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J30" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I30" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J30" t="str">
-        <f>IF(COUNTIF(A:A,A30) &gt; 1, "X", "")</f>
         <v/>
       </c>
     </row>
@@ -2362,15 +3951,15 @@
         <v>114</v>
       </c>
       <c r="H31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J31" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I31" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J31" t="str">
-        <f>IF(COUNTIF(A:A,A31) &gt; 1, "X", "")</f>
         <v/>
       </c>
     </row>
@@ -2385,15 +3974,15 @@
         <v>11</v>
       </c>
       <c r="H32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J32" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I32" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J32" t="str">
-        <f>IF(COUNTIF(A:A,A32) &gt; 1, "X", "")</f>
         <v/>
       </c>
     </row>
@@ -2408,15 +3997,15 @@
         <v>204</v>
       </c>
       <c r="H33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J33" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J33" t="str">
-        <f>IF(COUNTIF(A:A,A33) &gt; 1, "X", "")</f>
         <v/>
       </c>
     </row>
@@ -2431,15 +4020,15 @@
         <v>156</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J34" t="str">
-        <f>IF(COUNTIF(A:A,A34) &gt; 1, "X", "")</f>
+        <f t="shared" ref="J34:J65" si="3">IF(COUNTIF(A:A,A34) &gt; 1, "X", "")</f>
         <v/>
       </c>
     </row>
@@ -2454,15 +4043,15 @@
         <v>77</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J35" t="str">
-        <f>IF(COUNTIF(A:A,A35) &gt; 1, "X", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2477,15 +4066,15 @@
         <v>26</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J36" t="str">
-        <f>IF(COUNTIF(A:A,A36) &gt; 1, "X", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2500,15 +4089,15 @@
         <v>144</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J37" t="str">
-        <f>IF(COUNTIF(A:A,A37) &gt; 1, "X", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2523,15 +4112,15 @@
         <v>32</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J38" t="str">
-        <f>IF(COUNTIF(A:A,A38) &gt; 1, "X", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2546,15 +4135,15 @@
         <v>59</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J39" t="str">
-        <f>IF(COUNTIF(A:A,A39) &gt; 1, "X", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2569,15 +4158,15 @@
         <v>174</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J40" t="str">
-        <f>IF(COUNTIF(A:A,A40) &gt; 1, "X", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2592,15 +4181,15 @@
         <v>141</v>
       </c>
       <c r="H41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J41" t="str">
-        <f>IF(COUNTIF(A:A,A41) &gt; 1, "X", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2615,15 +4204,15 @@
         <v>147</v>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J42" t="str">
-        <f>IF(COUNTIF(A:A,A42) &gt; 1, "X", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2638,15 +4227,15 @@
         <v>39</v>
       </c>
       <c r="H43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J43" t="str">
-        <f>IF(COUNTIF(A:A,A43) &gt; 1, "X", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2661,15 +4250,15 @@
         <v>5</v>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J44" t="str">
-        <f>IF(COUNTIF(A:A,A44) &gt; 1, "X", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2684,15 +4273,15 @@
         <v>150</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J45" t="str">
-        <f>IF(COUNTIF(A:A,A45) &gt; 1, "X", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2707,15 +4296,15 @@
         <v>201</v>
       </c>
       <c r="H46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J46" t="str">
-        <f>IF(COUNTIF(A:A,A46) &gt; 1, "X", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2730,15 +4319,15 @@
         <v>225</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J47" t="str">
-        <f>IF(COUNTIF(A:A,A47) &gt; 1, "X", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2753,15 +4342,15 @@
         <v>14</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J48" t="str">
-        <f>IF(COUNTIF(A:A,A48) &gt; 1, "X", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2776,15 +4365,15 @@
         <v>23</v>
       </c>
       <c r="H49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J49" t="str">
-        <f>IF(COUNTIF(A:A,A49) &gt; 1, "X", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2799,15 +4388,15 @@
         <v>251</v>
       </c>
       <c r="H50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J50" t="str">
-        <f>IF(COUNTIF(A:A,A50) &gt; 1, "X", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2822,15 +4411,15 @@
         <v>256</v>
       </c>
       <c r="H51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J51" t="str">
-        <f>IF(COUNTIF(A:A,A51) &gt; 1, "X", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2845,15 +4434,15 @@
         <v>111</v>
       </c>
       <c r="H52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J52" t="str">
-        <f>IF(COUNTIF(A:A,A52) &gt; 1, "X", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2868,15 +4457,15 @@
         <v>213</v>
       </c>
       <c r="H53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J53" t="str">
-        <f>IF(COUNTIF(A:A,A53) &gt; 1, "X", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2891,15 +4480,15 @@
         <v>88</v>
       </c>
       <c r="H54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J54" t="str">
-        <f>IF(COUNTIF(A:A,A54) &gt; 1, "X", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2914,15 +4503,15 @@
         <v>126</v>
       </c>
       <c r="H55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J55" t="str">
-        <f>IF(COUNTIF(A:A,A55) &gt; 1, "X", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2937,15 +4526,15 @@
         <v>94</v>
       </c>
       <c r="H56" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J56" t="str">
-        <f>IF(COUNTIF(A:A,A56) &gt; 1, "X", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2960,15 +4549,15 @@
         <v>17</v>
       </c>
       <c r="H57" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J57" t="str">
-        <f>IF(COUNTIF(A:A,A57) &gt; 1, "X", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2983,15 +4572,15 @@
         <v>120</v>
       </c>
       <c r="H58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J58" t="str">
-        <f>IF(COUNTIF(A:A,A58) &gt; 1, "X", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -3006,15 +4595,15 @@
         <v>50</v>
       </c>
       <c r="H59" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J59" t="str">
-        <f>IF(COUNTIF(A:A,A59) &gt; 1, "X", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -3029,15 +4618,15 @@
         <v>129</v>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J60" t="str">
-        <f>IF(COUNTIF(A:A,A60) &gt; 1, "X", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -3052,15 +4641,15 @@
         <v>198</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J61" t="str">
-        <f>IF(COUNTIF(A:A,A61) &gt; 1, "X", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -3075,15 +4664,15 @@
         <v>8</v>
       </c>
       <c r="H62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J62" t="str">
-        <f>IF(COUNTIF(A:A,A62) &gt; 1, "X", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -3098,15 +4687,15 @@
         <v>168</v>
       </c>
       <c r="H63" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J63" t="str">
-        <f>IF(COUNTIF(A:A,A63) &gt; 1, "X", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -3121,15 +4710,15 @@
         <v>123</v>
       </c>
       <c r="H64" t="str">
-        <f t="shared" ref="H64:H88" si="2">IF(B64="","X","")</f>
+        <f t="shared" ref="H64:H88" si="4">IF(B64="","X","")</f>
         <v/>
       </c>
       <c r="I64" t="str">
-        <f t="shared" ref="I64:I88" si="3">IF(LEN(A64)&lt;&gt;3,"X","")</f>
+        <f t="shared" ref="I64:I88" si="5">IF(LEN(A64)&lt;&gt;3,"X","")</f>
         <v/>
       </c>
       <c r="J64" t="str">
-        <f>IF(COUNTIF(A:A,A64) &gt; 1, "X", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -3144,15 +4733,15 @@
         <v>153</v>
       </c>
       <c r="H65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I65" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J65" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J65" t="str">
-        <f>IF(COUNTIF(A:A,A65) &gt; 1, "X", "")</f>
         <v/>
       </c>
     </row>
@@ -3167,15 +4756,15 @@
         <v>210</v>
       </c>
       <c r="H66" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I66" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J66" t="str">
-        <f>IF(COUNTIF(A:A,A66) &gt; 1, "X", "")</f>
+        <f t="shared" ref="J66:J88" si="6">IF(COUNTIF(A:A,A66) &gt; 1, "X", "")</f>
         <v/>
       </c>
     </row>
@@ -3190,15 +4779,15 @@
         <v>216</v>
       </c>
       <c r="H67" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I67" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J67" t="str">
-        <f>IF(COUNTIF(A:A,A67) &gt; 1, "X", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3213,15 +4802,15 @@
         <v>254</v>
       </c>
       <c r="H68" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I68" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J68" t="str">
-        <f>IF(COUNTIF(A:A,A68) &gt; 1, "X", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3236,15 +4825,15 @@
         <v>231</v>
       </c>
       <c r="H69" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I69" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J69" t="str">
-        <f>IF(COUNTIF(A:A,A69) &gt; 1, "X", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3259,15 +4848,15 @@
         <v>186</v>
       </c>
       <c r="H70" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J70" t="str">
-        <f>IF(COUNTIF(A:A,A70) &gt; 1, "X", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3282,15 +4871,15 @@
         <v>177</v>
       </c>
       <c r="H71" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I71" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J71" t="str">
-        <f>IF(COUNTIF(A:A,A71) &gt; 1, "X", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3305,15 +4894,15 @@
         <v>189</v>
       </c>
       <c r="H72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I72" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J72" t="str">
-        <f>IF(COUNTIF(A:A,A72) &gt; 1, "X", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3328,15 +4917,15 @@
         <v>132</v>
       </c>
       <c r="H73" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I73" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J73" t="str">
-        <f>IF(COUNTIF(A:A,A73) &gt; 1, "X", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3351,15 +4940,15 @@
         <v>207</v>
       </c>
       <c r="H74" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I74" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J74" t="str">
-        <f>IF(COUNTIF(A:A,A74) &gt; 1, "X", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3374,15 +4963,15 @@
         <v>219</v>
       </c>
       <c r="H75" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I75" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J75" t="str">
-        <f>IF(COUNTIF(A:A,A75) &gt; 1, "X", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3397,15 +4986,15 @@
         <v>222</v>
       </c>
       <c r="H76" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I76" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J76" t="str">
-        <f>IF(COUNTIF(A:A,A76) &gt; 1, "X", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3420,15 +5009,15 @@
         <v>99</v>
       </c>
       <c r="H77" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I77" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J77" t="str">
-        <f>IF(COUNTIF(A:A,A77) &gt; 1, "X", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3443,15 +5032,15 @@
         <v>53</v>
       </c>
       <c r="H78" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I78" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J78" t="str">
-        <f>IF(COUNTIF(A:A,A78) &gt; 1, "X", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3466,15 +5055,15 @@
         <v>29</v>
       </c>
       <c r="H79" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I79" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J79" t="str">
-        <f>IF(COUNTIF(A:A,A79) &gt; 1, "X", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3489,15 +5078,15 @@
         <v>266</v>
       </c>
       <c r="H80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J80" t="str">
-        <f>IF(COUNTIF(A:A,A80) &gt; 1, "X", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3512,15 +5101,15 @@
         <v>20</v>
       </c>
       <c r="H81" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I81" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J81" t="str">
-        <f>IF(COUNTIF(A:A,A81) &gt; 1, "X", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3535,15 +5124,15 @@
         <v>42</v>
       </c>
       <c r="H82" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I82" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J82" t="str">
-        <f>IF(COUNTIF(A:A,A82) &gt; 1, "X", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3558,15 +5147,15 @@
         <v>234</v>
       </c>
       <c r="H83" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I83" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J83" t="str">
-        <f>IF(COUNTIF(A:A,A83) &gt; 1, "X", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3581,15 +5170,15 @@
         <v>240</v>
       </c>
       <c r="H84" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I84" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J84" t="str">
-        <f>IF(COUNTIF(A:A,A84) &gt; 1, "X", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3604,15 +5193,15 @@
         <v>91</v>
       </c>
       <c r="H85" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I85" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J85" t="str">
-        <f>IF(COUNTIF(A:A,A85) &gt; 1, "X", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3627,15 +5216,15 @@
         <v>195</v>
       </c>
       <c r="H86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J86" t="str">
-        <f>IF(COUNTIF(A:A,A86) &gt; 1, "X", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3650,15 +5239,15 @@
         <v>165</v>
       </c>
       <c r="H87" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I87" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J87" t="str">
-        <f>IF(COUNTIF(A:A,A87) &gt; 1, "X", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3673,15 +5262,15 @@
         <v>108</v>
       </c>
       <c r="H88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J88" t="str">
-        <f>IF(COUNTIF(A:A,A88) &gt; 1, "X", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3697,7 +5286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4410,4 +5999,5500 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F280"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>791</v>
+      </c>
+      <c r="B1" t="s">
+        <v>792</v>
+      </c>
+      <c r="C1" t="s">
+        <v>793</v>
+      </c>
+      <c r="D1" t="s">
+        <v>794</v>
+      </c>
+      <c r="E1" t="s">
+        <v>795</v>
+      </c>
+      <c r="F1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E5" t="s">
+        <v>276</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" t="s">
+        <v>278</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>281</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>284</v>
+      </c>
+      <c r="E9" t="s">
+        <v>281</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" t="s">
+        <v>286</v>
+      </c>
+      <c r="D10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E10" t="s">
+        <v>287</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" t="s">
+        <v>258</v>
+      </c>
+      <c r="E11" t="s">
+        <v>276</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>289</v>
+      </c>
+      <c r="B12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" t="s">
+        <v>169</v>
+      </c>
+      <c r="E12" t="s">
+        <v>290</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>291</v>
+      </c>
+      <c r="B13" t="s">
+        <v>292</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>293</v>
+      </c>
+      <c r="E13" t="s">
+        <v>276</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>294</v>
+      </c>
+      <c r="B14" t="s">
+        <v>292</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>293</v>
+      </c>
+      <c r="E14" t="s">
+        <v>276</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>295</v>
+      </c>
+      <c r="B15" t="s">
+        <v>296</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>297</v>
+      </c>
+      <c r="E15" t="s">
+        <v>298</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>299</v>
+      </c>
+      <c r="B16" t="s">
+        <v>300</v>
+      </c>
+      <c r="C16" t="s">
+        <v>301</v>
+      </c>
+      <c r="D16" t="s">
+        <v>302</v>
+      </c>
+      <c r="E16" t="s">
+        <v>303</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>304</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" t="s">
+        <v>276</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>305</v>
+      </c>
+      <c r="B18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>269</v>
+      </c>
+      <c r="E18" t="s">
+        <v>281</v>
+      </c>
+      <c r="F18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>307</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>308</v>
+      </c>
+      <c r="E19" t="s">
+        <v>281</v>
+      </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>309</v>
+      </c>
+      <c r="B20" t="s">
+        <v>310</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>311</v>
+      </c>
+      <c r="E20" t="s">
+        <v>276</v>
+      </c>
+      <c r="F20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" t="s">
+        <v>258</v>
+      </c>
+      <c r="E21" t="s">
+        <v>276</v>
+      </c>
+      <c r="F21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>313</v>
+      </c>
+      <c r="B22" t="s">
+        <v>314</v>
+      </c>
+      <c r="C22" t="s">
+        <v>315</v>
+      </c>
+      <c r="D22" t="s">
+        <v>316</v>
+      </c>
+      <c r="E22" t="s">
+        <v>317</v>
+      </c>
+      <c r="F22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>318</v>
+      </c>
+      <c r="B23" t="s">
+        <v>319</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" t="s">
+        <v>320</v>
+      </c>
+      <c r="E23" t="s">
+        <v>276</v>
+      </c>
+      <c r="F23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>321</v>
+      </c>
+      <c r="B24" t="s">
+        <v>244</v>
+      </c>
+      <c r="C24" t="s">
+        <v>243</v>
+      </c>
+      <c r="D24" t="s">
+        <v>242</v>
+      </c>
+      <c r="E24" t="s">
+        <v>322</v>
+      </c>
+      <c r="F24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>323</v>
+      </c>
+      <c r="B25" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" t="s">
+        <v>181</v>
+      </c>
+      <c r="E25" t="s">
+        <v>324</v>
+      </c>
+      <c r="F25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>325</v>
+      </c>
+      <c r="B26" t="s">
+        <v>326</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>327</v>
+      </c>
+      <c r="E26" t="s">
+        <v>276</v>
+      </c>
+      <c r="F26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>328</v>
+      </c>
+      <c r="B27" t="s">
+        <v>329</v>
+      </c>
+      <c r="C27" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" t="s">
+        <v>330</v>
+      </c>
+      <c r="E27" t="s">
+        <v>331</v>
+      </c>
+      <c r="F27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>332</v>
+      </c>
+      <c r="B28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" t="s">
+        <v>258</v>
+      </c>
+      <c r="E28" t="s">
+        <v>276</v>
+      </c>
+      <c r="F28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>333</v>
+      </c>
+      <c r="B29" t="s">
+        <v>334</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
+        <v>335</v>
+      </c>
+      <c r="E29" t="s">
+        <v>276</v>
+      </c>
+      <c r="F29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>336</v>
+      </c>
+      <c r="B30" t="s">
+        <v>195</v>
+      </c>
+      <c r="C30" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" t="s">
+        <v>193</v>
+      </c>
+      <c r="E30" t="s">
+        <v>337</v>
+      </c>
+      <c r="F30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>338</v>
+      </c>
+      <c r="B31" t="s">
+        <v>339</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" t="s">
+        <v>340</v>
+      </c>
+      <c r="E31" t="s">
+        <v>276</v>
+      </c>
+      <c r="F31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>341</v>
+      </c>
+      <c r="B32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" t="s">
+        <v>342</v>
+      </c>
+      <c r="D32" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" t="s">
+        <v>343</v>
+      </c>
+      <c r="F32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>156</v>
+      </c>
+      <c r="C33" t="s">
+        <v>155</v>
+      </c>
+      <c r="D33" t="s">
+        <v>154</v>
+      </c>
+      <c r="E33" t="s">
+        <v>324</v>
+      </c>
+      <c r="F33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>344</v>
+      </c>
+      <c r="B34" t="s">
+        <v>263</v>
+      </c>
+      <c r="C34" t="s">
+        <v>248</v>
+      </c>
+      <c r="D34" t="s">
+        <v>262</v>
+      </c>
+      <c r="E34" t="s">
+        <v>298</v>
+      </c>
+      <c r="F34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>345</v>
+      </c>
+      <c r="B35" t="s">
+        <v>266</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" t="s">
+        <v>265</v>
+      </c>
+      <c r="E35" t="s">
+        <v>276</v>
+      </c>
+      <c r="F35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>346</v>
+      </c>
+      <c r="B36" t="s">
+        <v>180</v>
+      </c>
+      <c r="C36" t="s">
+        <v>347</v>
+      </c>
+      <c r="D36" t="s">
+        <v>178</v>
+      </c>
+      <c r="E36" t="s">
+        <v>348</v>
+      </c>
+      <c r="F36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>349</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" t="s">
+        <v>350</v>
+      </c>
+      <c r="F37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>351</v>
+      </c>
+      <c r="B38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" t="s">
+        <v>298</v>
+      </c>
+      <c r="F38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>352</v>
+      </c>
+      <c r="B39" t="s">
+        <v>266</v>
+      </c>
+      <c r="C39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" t="s">
+        <v>265</v>
+      </c>
+      <c r="E39" t="s">
+        <v>353</v>
+      </c>
+      <c r="F39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>354</v>
+      </c>
+      <c r="B40" t="s">
+        <v>355</v>
+      </c>
+      <c r="C40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" t="s">
+        <v>269</v>
+      </c>
+      <c r="E40" t="s">
+        <v>276</v>
+      </c>
+      <c r="F40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>266</v>
+      </c>
+      <c r="C41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" t="s">
+        <v>265</v>
+      </c>
+      <c r="E41" t="s">
+        <v>353</v>
+      </c>
+      <c r="F41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>356</v>
+      </c>
+      <c r="B42" t="s">
+        <v>357</v>
+      </c>
+      <c r="C42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" t="s">
+        <v>358</v>
+      </c>
+      <c r="E42" t="s">
+        <v>359</v>
+      </c>
+      <c r="F42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>360</v>
+      </c>
+      <c r="C43" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" t="s">
+        <v>361</v>
+      </c>
+      <c r="E43" t="s">
+        <v>276</v>
+      </c>
+      <c r="F43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>362</v>
+      </c>
+      <c r="B44" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44" t="s">
+        <v>363</v>
+      </c>
+      <c r="F44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>364</v>
+      </c>
+      <c r="B45" t="s">
+        <v>195</v>
+      </c>
+      <c r="C45" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" t="s">
+        <v>193</v>
+      </c>
+      <c r="E45" t="s">
+        <v>337</v>
+      </c>
+      <c r="F45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>365</v>
+      </c>
+      <c r="B46" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46" t="s">
+        <v>140</v>
+      </c>
+      <c r="D46" t="s">
+        <v>160</v>
+      </c>
+      <c r="E46" t="s">
+        <v>337</v>
+      </c>
+      <c r="F46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>366</v>
+      </c>
+      <c r="B47" t="s">
+        <v>174</v>
+      </c>
+      <c r="C47" t="s">
+        <v>173</v>
+      </c>
+      <c r="D47" t="s">
+        <v>172</v>
+      </c>
+      <c r="E47" t="s">
+        <v>359</v>
+      </c>
+      <c r="F47">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>266</v>
+      </c>
+      <c r="C48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" t="s">
+        <v>265</v>
+      </c>
+      <c r="E48" t="s">
+        <v>276</v>
+      </c>
+      <c r="F48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>367</v>
+      </c>
+      <c r="B49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" t="s">
+        <v>140</v>
+      </c>
+      <c r="D49" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49" t="s">
+        <v>337</v>
+      </c>
+      <c r="F49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>368</v>
+      </c>
+      <c r="B50" t="s">
+        <v>369</v>
+      </c>
+      <c r="C50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" t="s">
+        <v>370</v>
+      </c>
+      <c r="E50" t="s">
+        <v>276</v>
+      </c>
+      <c r="F50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>371</v>
+      </c>
+      <c r="B51" t="s">
+        <v>192</v>
+      </c>
+      <c r="C51" t="s">
+        <v>372</v>
+      </c>
+      <c r="D51" t="s">
+        <v>190</v>
+      </c>
+      <c r="E51" t="s">
+        <v>298</v>
+      </c>
+      <c r="F51">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>373</v>
+      </c>
+      <c r="B52" t="s">
+        <v>374</v>
+      </c>
+      <c r="C52" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" t="s">
+        <v>375</v>
+      </c>
+      <c r="E52" t="s">
+        <v>276</v>
+      </c>
+      <c r="F52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>376</v>
+      </c>
+      <c r="B53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" t="s">
+        <v>140</v>
+      </c>
+      <c r="D53" t="s">
+        <v>89</v>
+      </c>
+      <c r="E53" t="s">
+        <v>337</v>
+      </c>
+      <c r="F53">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>377</v>
+      </c>
+      <c r="B54" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" t="s">
+        <v>140</v>
+      </c>
+      <c r="D54" t="s">
+        <v>89</v>
+      </c>
+      <c r="E54" t="s">
+        <v>337</v>
+      </c>
+      <c r="F54">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>378</v>
+      </c>
+      <c r="B55" t="s">
+        <v>379</v>
+      </c>
+      <c r="C55" t="s">
+        <v>36</v>
+      </c>
+      <c r="D55" t="s">
+        <v>380</v>
+      </c>
+      <c r="E55" t="s">
+        <v>298</v>
+      </c>
+      <c r="F55">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>381</v>
+      </c>
+      <c r="B56" t="s">
+        <v>382</v>
+      </c>
+      <c r="C56" t="s">
+        <v>383</v>
+      </c>
+      <c r="D56" t="s">
+        <v>384</v>
+      </c>
+      <c r="E56" t="s">
+        <v>385</v>
+      </c>
+      <c r="F56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>386</v>
+      </c>
+      <c r="B57" t="s">
+        <v>310</v>
+      </c>
+      <c r="C57" t="s">
+        <v>36</v>
+      </c>
+      <c r="D57" t="s">
+        <v>311</v>
+      </c>
+      <c r="E57" t="s">
+        <v>276</v>
+      </c>
+      <c r="F57">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>387</v>
+      </c>
+      <c r="B58" t="s">
+        <v>388</v>
+      </c>
+      <c r="C58" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" t="s">
+        <v>389</v>
+      </c>
+      <c r="E58" t="s">
+        <v>298</v>
+      </c>
+      <c r="F58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>390</v>
+      </c>
+      <c r="B59" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" t="s">
+        <v>140</v>
+      </c>
+      <c r="D59" t="s">
+        <v>139</v>
+      </c>
+      <c r="E59" t="s">
+        <v>337</v>
+      </c>
+      <c r="F59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>391</v>
+      </c>
+      <c r="B60" t="s">
+        <v>392</v>
+      </c>
+      <c r="C60" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60" t="s">
+        <v>393</v>
+      </c>
+      <c r="E60" t="s">
+        <v>337</v>
+      </c>
+      <c r="F60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>394</v>
+      </c>
+      <c r="B61" t="s">
+        <v>91</v>
+      </c>
+      <c r="C61" t="s">
+        <v>140</v>
+      </c>
+      <c r="D61" t="s">
+        <v>89</v>
+      </c>
+      <c r="E61" t="s">
+        <v>337</v>
+      </c>
+      <c r="F61">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>395</v>
+      </c>
+      <c r="B62" t="s">
+        <v>396</v>
+      </c>
+      <c r="C62" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62" t="s">
+        <v>397</v>
+      </c>
+      <c r="E62" t="s">
+        <v>276</v>
+      </c>
+      <c r="F62">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>398</v>
+      </c>
+      <c r="C63" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" t="s">
+        <v>269</v>
+      </c>
+      <c r="E63" t="s">
+        <v>276</v>
+      </c>
+      <c r="F63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>399</v>
+      </c>
+      <c r="B64" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" t="s">
+        <v>137</v>
+      </c>
+      <c r="D64" t="s">
+        <v>136</v>
+      </c>
+      <c r="E64" t="s">
+        <v>400</v>
+      </c>
+      <c r="F64">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>401</v>
+      </c>
+      <c r="B65" t="s">
+        <v>195</v>
+      </c>
+      <c r="C65" t="s">
+        <v>140</v>
+      </c>
+      <c r="D65" t="s">
+        <v>193</v>
+      </c>
+      <c r="E65" t="s">
+        <v>337</v>
+      </c>
+      <c r="F65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>402</v>
+      </c>
+      <c r="B66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C66" t="s">
+        <v>241</v>
+      </c>
+      <c r="D66" t="s">
+        <v>46</v>
+      </c>
+      <c r="E66" t="s">
+        <v>403</v>
+      </c>
+      <c r="F66">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>404</v>
+      </c>
+      <c r="B67" t="s">
+        <v>405</v>
+      </c>
+      <c r="C67" t="s">
+        <v>36</v>
+      </c>
+      <c r="D67" t="s">
+        <v>406</v>
+      </c>
+      <c r="E67" t="s">
+        <v>298</v>
+      </c>
+      <c r="F67">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>407</v>
+      </c>
+      <c r="C68" t="s">
+        <v>36</v>
+      </c>
+      <c r="D68" t="s">
+        <v>408</v>
+      </c>
+      <c r="E68" t="s">
+        <v>298</v>
+      </c>
+      <c r="F68">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>409</v>
+      </c>
+      <c r="B69" t="s">
+        <v>410</v>
+      </c>
+      <c r="C69" t="s">
+        <v>85</v>
+      </c>
+      <c r="D69" t="s">
+        <v>411</v>
+      </c>
+      <c r="E69" t="s">
+        <v>276</v>
+      </c>
+      <c r="F69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>412</v>
+      </c>
+      <c r="B70" t="s">
+        <v>96</v>
+      </c>
+      <c r="C70" t="s">
+        <v>95</v>
+      </c>
+      <c r="D70" t="s">
+        <v>258</v>
+      </c>
+      <c r="E70" t="s">
+        <v>276</v>
+      </c>
+      <c r="F70">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>413</v>
+      </c>
+      <c r="B71" t="s">
+        <v>45</v>
+      </c>
+      <c r="C71" t="s">
+        <v>44</v>
+      </c>
+      <c r="D71" t="s">
+        <v>43</v>
+      </c>
+      <c r="E71" t="s">
+        <v>414</v>
+      </c>
+      <c r="F71">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>415</v>
+      </c>
+      <c r="B72" t="s">
+        <v>247</v>
+      </c>
+      <c r="C72" t="s">
+        <v>246</v>
+      </c>
+      <c r="D72" t="s">
+        <v>245</v>
+      </c>
+      <c r="E72" t="s">
+        <v>416</v>
+      </c>
+      <c r="F72">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>417</v>
+      </c>
+      <c r="B73" t="s">
+        <v>418</v>
+      </c>
+      <c r="C73" t="s">
+        <v>140</v>
+      </c>
+      <c r="D73" t="s">
+        <v>419</v>
+      </c>
+      <c r="E73" t="s">
+        <v>337</v>
+      </c>
+      <c r="F73">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>420</v>
+      </c>
+      <c r="B74" t="s">
+        <v>292</v>
+      </c>
+      <c r="C74" t="s">
+        <v>36</v>
+      </c>
+      <c r="D74" t="s">
+        <v>293</v>
+      </c>
+      <c r="E74" t="s">
+        <v>276</v>
+      </c>
+      <c r="F74">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>421</v>
+      </c>
+      <c r="B75" t="s">
+        <v>422</v>
+      </c>
+      <c r="C75" t="s">
+        <v>36</v>
+      </c>
+      <c r="D75" t="s">
+        <v>423</v>
+      </c>
+      <c r="E75" t="s">
+        <v>298</v>
+      </c>
+      <c r="F75">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>424</v>
+      </c>
+      <c r="B76" t="s">
+        <v>266</v>
+      </c>
+      <c r="C76" t="s">
+        <v>36</v>
+      </c>
+      <c r="D76" t="s">
+        <v>265</v>
+      </c>
+      <c r="E76" t="s">
+        <v>353</v>
+      </c>
+      <c r="F76">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>269</v>
+      </c>
+      <c r="C77" t="s">
+        <v>269</v>
+      </c>
+      <c r="D77" t="s">
+        <v>269</v>
+      </c>
+      <c r="E77" t="s">
+        <v>425</v>
+      </c>
+      <c r="F77" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>426</v>
+      </c>
+      <c r="B78" t="s">
+        <v>266</v>
+      </c>
+      <c r="C78" t="s">
+        <v>36</v>
+      </c>
+      <c r="D78" t="s">
+        <v>265</v>
+      </c>
+      <c r="E78" t="s">
+        <v>353</v>
+      </c>
+      <c r="F78">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>269</v>
+      </c>
+      <c r="C79" t="s">
+        <v>269</v>
+      </c>
+      <c r="D79" t="s">
+        <v>269</v>
+      </c>
+      <c r="E79" t="s">
+        <v>425</v>
+      </c>
+      <c r="F79" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>427</v>
+      </c>
+      <c r="B80" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" t="s">
+        <v>428</v>
+      </c>
+      <c r="D80" t="s">
+        <v>78</v>
+      </c>
+      <c r="E80" t="s">
+        <v>429</v>
+      </c>
+      <c r="F80">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>430</v>
+      </c>
+      <c r="B81" t="s">
+        <v>266</v>
+      </c>
+      <c r="C81" t="s">
+        <v>36</v>
+      </c>
+      <c r="D81" t="s">
+        <v>265</v>
+      </c>
+      <c r="E81" t="s">
+        <v>353</v>
+      </c>
+      <c r="F81">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>431</v>
+      </c>
+      <c r="B82" t="s">
+        <v>91</v>
+      </c>
+      <c r="C82" t="s">
+        <v>140</v>
+      </c>
+      <c r="D82" t="s">
+        <v>89</v>
+      </c>
+      <c r="E82" t="s">
+        <v>337</v>
+      </c>
+      <c r="F82">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>432</v>
+      </c>
+      <c r="B83" t="s">
+        <v>62</v>
+      </c>
+      <c r="C83" t="s">
+        <v>61</v>
+      </c>
+      <c r="D83" t="s">
+        <v>60</v>
+      </c>
+      <c r="E83" t="s">
+        <v>276</v>
+      </c>
+      <c r="F83">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>433</v>
+      </c>
+      <c r="B84" t="s">
+        <v>96</v>
+      </c>
+      <c r="C84" t="s">
+        <v>95</v>
+      </c>
+      <c r="D84" t="s">
+        <v>258</v>
+      </c>
+      <c r="E84" t="s">
+        <v>276</v>
+      </c>
+      <c r="F84">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>434</v>
+      </c>
+      <c r="B85" t="s">
+        <v>159</v>
+      </c>
+      <c r="C85" t="s">
+        <v>158</v>
+      </c>
+      <c r="D85" t="s">
+        <v>157</v>
+      </c>
+      <c r="E85" t="s">
+        <v>435</v>
+      </c>
+      <c r="F85">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>436</v>
+      </c>
+      <c r="B86" t="s">
+        <v>437</v>
+      </c>
+      <c r="C86" t="s">
+        <v>34</v>
+      </c>
+      <c r="D86" t="s">
+        <v>438</v>
+      </c>
+      <c r="E86" t="s">
+        <v>281</v>
+      </c>
+      <c r="F86">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>439</v>
+      </c>
+      <c r="B87" t="s">
+        <v>247</v>
+      </c>
+      <c r="C87" t="s">
+        <v>246</v>
+      </c>
+      <c r="D87" t="s">
+        <v>245</v>
+      </c>
+      <c r="E87" t="s">
+        <v>416</v>
+      </c>
+      <c r="F87">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>440</v>
+      </c>
+      <c r="C88" t="s">
+        <v>246</v>
+      </c>
+      <c r="D88" t="s">
+        <v>269</v>
+      </c>
+      <c r="E88" t="s">
+        <v>441</v>
+      </c>
+      <c r="F88">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>442</v>
+      </c>
+      <c r="B89" t="s">
+        <v>443</v>
+      </c>
+      <c r="C89" t="s">
+        <v>36</v>
+      </c>
+      <c r="D89" t="s">
+        <v>444</v>
+      </c>
+      <c r="E89" t="s">
+        <v>276</v>
+      </c>
+      <c r="F89">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>445</v>
+      </c>
+      <c r="B90" t="s">
+        <v>96</v>
+      </c>
+      <c r="C90" t="s">
+        <v>95</v>
+      </c>
+      <c r="D90" t="s">
+        <v>258</v>
+      </c>
+      <c r="E90" t="s">
+        <v>276</v>
+      </c>
+      <c r="F90">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>446</v>
+      </c>
+      <c r="B91" t="s">
+        <v>96</v>
+      </c>
+      <c r="C91" t="s">
+        <v>95</v>
+      </c>
+      <c r="D91" t="s">
+        <v>258</v>
+      </c>
+      <c r="E91" t="s">
+        <v>276</v>
+      </c>
+      <c r="F91">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>447</v>
+      </c>
+      <c r="B92" t="s">
+        <v>448</v>
+      </c>
+      <c r="C92" t="s">
+        <v>140</v>
+      </c>
+      <c r="D92" t="s">
+        <v>449</v>
+      </c>
+      <c r="E92" t="s">
+        <v>337</v>
+      </c>
+      <c r="F92">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>450</v>
+      </c>
+      <c r="B93" t="s">
+        <v>91</v>
+      </c>
+      <c r="C93" t="s">
+        <v>140</v>
+      </c>
+      <c r="D93" t="s">
+        <v>89</v>
+      </c>
+      <c r="E93" t="s">
+        <v>337</v>
+      </c>
+      <c r="F93">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>451</v>
+      </c>
+      <c r="B94" t="s">
+        <v>56</v>
+      </c>
+      <c r="C94" t="s">
+        <v>55</v>
+      </c>
+      <c r="D94" t="s">
+        <v>54</v>
+      </c>
+      <c r="E94" t="s">
+        <v>452</v>
+      </c>
+      <c r="F94">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>453</v>
+      </c>
+      <c r="B95" t="s">
+        <v>454</v>
+      </c>
+      <c r="C95" t="s">
+        <v>455</v>
+      </c>
+      <c r="D95" t="s">
+        <v>456</v>
+      </c>
+      <c r="E95" t="s">
+        <v>457</v>
+      </c>
+      <c r="F95">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>458</v>
+      </c>
+      <c r="B96" t="s">
+        <v>96</v>
+      </c>
+      <c r="C96" t="s">
+        <v>95</v>
+      </c>
+      <c r="D96" t="s">
+        <v>258</v>
+      </c>
+      <c r="E96" t="s">
+        <v>276</v>
+      </c>
+      <c r="F96">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>459</v>
+      </c>
+      <c r="B97" t="s">
+        <v>460</v>
+      </c>
+      <c r="C97" t="s">
+        <v>461</v>
+      </c>
+      <c r="D97" t="s">
+        <v>115</v>
+      </c>
+      <c r="E97" t="s">
+        <v>462</v>
+      </c>
+      <c r="F97">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>463</v>
+      </c>
+      <c r="B98" t="s">
+        <v>464</v>
+      </c>
+      <c r="C98" t="s">
+        <v>34</v>
+      </c>
+      <c r="D98" t="s">
+        <v>465</v>
+      </c>
+      <c r="E98" t="s">
+        <v>281</v>
+      </c>
+      <c r="F98">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>466</v>
+      </c>
+      <c r="B99" t="s">
+        <v>96</v>
+      </c>
+      <c r="C99" t="s">
+        <v>95</v>
+      </c>
+      <c r="D99" t="s">
+        <v>258</v>
+      </c>
+      <c r="E99" t="s">
+        <v>276</v>
+      </c>
+      <c r="F99">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>467</v>
+      </c>
+      <c r="B100" t="s">
+        <v>292</v>
+      </c>
+      <c r="C100" t="s">
+        <v>36</v>
+      </c>
+      <c r="D100" t="s">
+        <v>293</v>
+      </c>
+      <c r="E100" t="s">
+        <v>276</v>
+      </c>
+      <c r="F100">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>468</v>
+      </c>
+      <c r="B101" t="s">
+        <v>228</v>
+      </c>
+      <c r="C101" t="s">
+        <v>227</v>
+      </c>
+      <c r="D101" t="s">
+        <v>226</v>
+      </c>
+      <c r="E101" t="s">
+        <v>298</v>
+      </c>
+      <c r="F101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>469</v>
+      </c>
+      <c r="B102" t="s">
+        <v>282</v>
+      </c>
+      <c r="C102" t="s">
+        <v>34</v>
+      </c>
+      <c r="D102" t="s">
+        <v>33</v>
+      </c>
+      <c r="E102" t="s">
+        <v>281</v>
+      </c>
+      <c r="F102">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>283</v>
+      </c>
+      <c r="C103" t="s">
+        <v>34</v>
+      </c>
+      <c r="D103" t="s">
+        <v>269</v>
+      </c>
+      <c r="E103" t="s">
+        <v>281</v>
+      </c>
+      <c r="F103">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>470</v>
+      </c>
+      <c r="B104" t="s">
+        <v>471</v>
+      </c>
+      <c r="C104" t="s">
+        <v>140</v>
+      </c>
+      <c r="D104" t="s">
+        <v>472</v>
+      </c>
+      <c r="E104" t="s">
+        <v>337</v>
+      </c>
+      <c r="F104">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>473</v>
+      </c>
+      <c r="B105" t="s">
+        <v>195</v>
+      </c>
+      <c r="C105" t="s">
+        <v>140</v>
+      </c>
+      <c r="D105" t="s">
+        <v>193</v>
+      </c>
+      <c r="E105" t="s">
+        <v>337</v>
+      </c>
+      <c r="F105">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>474</v>
+      </c>
+      <c r="B106" t="s">
+        <v>475</v>
+      </c>
+      <c r="C106" t="s">
+        <v>36</v>
+      </c>
+      <c r="D106" t="s">
+        <v>476</v>
+      </c>
+      <c r="E106" t="s">
+        <v>276</v>
+      </c>
+      <c r="F106">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>477</v>
+      </c>
+      <c r="B107" t="s">
+        <v>105</v>
+      </c>
+      <c r="C107" t="s">
+        <v>104</v>
+      </c>
+      <c r="D107" t="s">
+        <v>103</v>
+      </c>
+      <c r="E107" t="s">
+        <v>337</v>
+      </c>
+      <c r="F107">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>478</v>
+      </c>
+      <c r="B108" t="s">
+        <v>479</v>
+      </c>
+      <c r="C108" t="s">
+        <v>64</v>
+      </c>
+      <c r="D108" t="s">
+        <v>480</v>
+      </c>
+      <c r="E108" t="s">
+        <v>298</v>
+      </c>
+      <c r="F108">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>481</v>
+      </c>
+      <c r="B109" t="s">
+        <v>482</v>
+      </c>
+      <c r="C109" t="s">
+        <v>36</v>
+      </c>
+      <c r="D109" t="s">
+        <v>483</v>
+      </c>
+      <c r="E109" t="s">
+        <v>276</v>
+      </c>
+      <c r="F109">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>484</v>
+      </c>
+      <c r="B110" t="s">
+        <v>114</v>
+      </c>
+      <c r="C110" t="s">
+        <v>113</v>
+      </c>
+      <c r="D110" t="s">
+        <v>112</v>
+      </c>
+      <c r="E110" t="s">
+        <v>485</v>
+      </c>
+      <c r="F110">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>486</v>
+      </c>
+      <c r="B111" t="s">
+        <v>487</v>
+      </c>
+      <c r="C111" t="s">
+        <v>246</v>
+      </c>
+      <c r="D111" t="s">
+        <v>488</v>
+      </c>
+      <c r="E111" t="s">
+        <v>489</v>
+      </c>
+      <c r="F111">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>490</v>
+      </c>
+      <c r="B112" t="s">
+        <v>156</v>
+      </c>
+      <c r="C112" t="s">
+        <v>155</v>
+      </c>
+      <c r="D112" t="s">
+        <v>154</v>
+      </c>
+      <c r="E112" t="s">
+        <v>324</v>
+      </c>
+      <c r="F112">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>491</v>
+      </c>
+      <c r="B113" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113" t="s">
+        <v>359</v>
+      </c>
+      <c r="F113">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>492</v>
+      </c>
+      <c r="B114" t="s">
+        <v>493</v>
+      </c>
+      <c r="C114" t="s">
+        <v>494</v>
+      </c>
+      <c r="D114" t="s">
+        <v>495</v>
+      </c>
+      <c r="E114" t="s">
+        <v>496</v>
+      </c>
+      <c r="F114">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>497</v>
+      </c>
+      <c r="B115" t="s">
+        <v>77</v>
+      </c>
+      <c r="C115" t="s">
+        <v>498</v>
+      </c>
+      <c r="D115" t="s">
+        <v>75</v>
+      </c>
+      <c r="E115" t="s">
+        <v>322</v>
+      </c>
+      <c r="F115">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>499</v>
+      </c>
+      <c r="B116" t="s">
+        <v>96</v>
+      </c>
+      <c r="C116" t="s">
+        <v>95</v>
+      </c>
+      <c r="D116" t="s">
+        <v>258</v>
+      </c>
+      <c r="E116" t="s">
+        <v>276</v>
+      </c>
+      <c r="F116">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>500</v>
+      </c>
+      <c r="B117" t="s">
+        <v>282</v>
+      </c>
+      <c r="C117" t="s">
+        <v>34</v>
+      </c>
+      <c r="D117" t="s">
+        <v>33</v>
+      </c>
+      <c r="E117" t="s">
+        <v>281</v>
+      </c>
+      <c r="F117">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>501</v>
+      </c>
+      <c r="C118" t="s">
+        <v>34</v>
+      </c>
+      <c r="D118" t="s">
+        <v>502</v>
+      </c>
+      <c r="E118" t="s">
+        <v>281</v>
+      </c>
+      <c r="F118">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>503</v>
+      </c>
+      <c r="B119" t="s">
+        <v>204</v>
+      </c>
+      <c r="C119" t="s">
+        <v>203</v>
+      </c>
+      <c r="D119" t="s">
+        <v>202</v>
+      </c>
+      <c r="E119" t="s">
+        <v>504</v>
+      </c>
+      <c r="F119">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>505</v>
+      </c>
+      <c r="B120" t="s">
+        <v>96</v>
+      </c>
+      <c r="C120" t="s">
+        <v>95</v>
+      </c>
+      <c r="D120" t="s">
+        <v>258</v>
+      </c>
+      <c r="E120" t="s">
+        <v>276</v>
+      </c>
+      <c r="F120">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>506</v>
+      </c>
+      <c r="B121" t="s">
+        <v>507</v>
+      </c>
+      <c r="C121" t="s">
+        <v>36</v>
+      </c>
+      <c r="D121" t="s">
+        <v>508</v>
+      </c>
+      <c r="E121" t="s">
+        <v>276</v>
+      </c>
+      <c r="F121">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>509</v>
+      </c>
+      <c r="B122" t="s">
+        <v>144</v>
+      </c>
+      <c r="C122" t="s">
+        <v>143</v>
+      </c>
+      <c r="D122" t="s">
+        <v>142</v>
+      </c>
+      <c r="E122" t="s">
+        <v>510</v>
+      </c>
+      <c r="F122">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>511</v>
+      </c>
+      <c r="B123" t="s">
+        <v>282</v>
+      </c>
+      <c r="C123" t="s">
+        <v>34</v>
+      </c>
+      <c r="D123" t="s">
+        <v>33</v>
+      </c>
+      <c r="E123" t="s">
+        <v>281</v>
+      </c>
+      <c r="F123">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>512</v>
+      </c>
+      <c r="C124" t="s">
+        <v>34</v>
+      </c>
+      <c r="D124" t="s">
+        <v>513</v>
+      </c>
+      <c r="E124" t="s">
+        <v>281</v>
+      </c>
+      <c r="F124">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>514</v>
+      </c>
+      <c r="B125" t="s">
+        <v>26</v>
+      </c>
+      <c r="C125" t="s">
+        <v>515</v>
+      </c>
+      <c r="D125" t="s">
+        <v>24</v>
+      </c>
+      <c r="E125" t="s">
+        <v>516</v>
+      </c>
+      <c r="F125">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>517</v>
+      </c>
+      <c r="B126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" t="s">
+        <v>518</v>
+      </c>
+      <c r="D126" t="s">
+        <v>4</v>
+      </c>
+      <c r="E126" t="s">
+        <v>519</v>
+      </c>
+      <c r="F126">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>520</v>
+      </c>
+      <c r="B127" t="s">
+        <v>32</v>
+      </c>
+      <c r="C127" t="s">
+        <v>521</v>
+      </c>
+      <c r="D127" t="s">
+        <v>30</v>
+      </c>
+      <c r="E127" t="s">
+        <v>276</v>
+      </c>
+      <c r="F127">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>522</v>
+      </c>
+      <c r="B128" t="s">
+        <v>310</v>
+      </c>
+      <c r="C128" t="s">
+        <v>36</v>
+      </c>
+      <c r="D128" t="s">
+        <v>311</v>
+      </c>
+      <c r="E128" t="s">
+        <v>276</v>
+      </c>
+      <c r="F128">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>523</v>
+      </c>
+      <c r="C129" t="s">
+        <v>36</v>
+      </c>
+      <c r="D129" t="s">
+        <v>269</v>
+      </c>
+      <c r="E129" t="s">
+        <v>276</v>
+      </c>
+      <c r="F129">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>524</v>
+      </c>
+      <c r="B130" t="s">
+        <v>147</v>
+      </c>
+      <c r="C130" t="s">
+        <v>146</v>
+      </c>
+      <c r="D130" t="s">
+        <v>145</v>
+      </c>
+      <c r="E130" t="s">
+        <v>525</v>
+      </c>
+      <c r="F130">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>526</v>
+      </c>
+      <c r="B131" t="s">
+        <v>527</v>
+      </c>
+      <c r="C131" t="s">
+        <v>146</v>
+      </c>
+      <c r="D131" t="s">
+        <v>528</v>
+      </c>
+      <c r="E131" t="s">
+        <v>529</v>
+      </c>
+      <c r="F131">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>530</v>
+      </c>
+      <c r="B132" t="s">
+        <v>96</v>
+      </c>
+      <c r="C132" t="s">
+        <v>95</v>
+      </c>
+      <c r="D132" t="s">
+        <v>258</v>
+      </c>
+      <c r="E132" t="s">
+        <v>276</v>
+      </c>
+      <c r="F132">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>531</v>
+      </c>
+      <c r="B133" t="s">
+        <v>39</v>
+      </c>
+      <c r="C133" t="s">
+        <v>38</v>
+      </c>
+      <c r="D133" t="s">
+        <v>37</v>
+      </c>
+      <c r="E133" t="s">
+        <v>322</v>
+      </c>
+      <c r="F133">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>532</v>
+      </c>
+      <c r="B134" t="s">
+        <v>59</v>
+      </c>
+      <c r="C134" t="s">
+        <v>533</v>
+      </c>
+      <c r="D134" t="s">
+        <v>57</v>
+      </c>
+      <c r="E134" t="s">
+        <v>534</v>
+      </c>
+      <c r="F134">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>535</v>
+      </c>
+      <c r="B135" t="s">
+        <v>150</v>
+      </c>
+      <c r="C135" t="s">
+        <v>149</v>
+      </c>
+      <c r="D135" t="s">
+        <v>148</v>
+      </c>
+      <c r="E135" t="s">
+        <v>536</v>
+      </c>
+      <c r="F135">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>537</v>
+      </c>
+      <c r="B136" t="s">
+        <v>96</v>
+      </c>
+      <c r="C136" t="s">
+        <v>95</v>
+      </c>
+      <c r="D136" t="s">
+        <v>258</v>
+      </c>
+      <c r="E136" t="s">
+        <v>276</v>
+      </c>
+      <c r="F136">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>538</v>
+      </c>
+      <c r="B137" t="s">
+        <v>201</v>
+      </c>
+      <c r="C137" t="s">
+        <v>539</v>
+      </c>
+      <c r="D137" t="s">
+        <v>199</v>
+      </c>
+      <c r="E137" t="s">
+        <v>540</v>
+      </c>
+      <c r="F137">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>541</v>
+      </c>
+      <c r="B138" t="s">
+        <v>225</v>
+      </c>
+      <c r="C138" t="s">
+        <v>64</v>
+      </c>
+      <c r="D138" t="s">
+        <v>223</v>
+      </c>
+      <c r="E138" t="s">
+        <v>542</v>
+      </c>
+      <c r="F138">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>165</v>
+      </c>
+      <c r="C139" t="s">
+        <v>164</v>
+      </c>
+      <c r="D139" t="s">
+        <v>163</v>
+      </c>
+      <c r="E139" t="s">
+        <v>276</v>
+      </c>
+      <c r="F139">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>543</v>
+      </c>
+      <c r="B140" t="s">
+        <v>544</v>
+      </c>
+      <c r="C140" t="s">
+        <v>36</v>
+      </c>
+      <c r="D140" t="s">
+        <v>545</v>
+      </c>
+      <c r="E140" t="s">
+        <v>276</v>
+      </c>
+      <c r="F140">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>546</v>
+      </c>
+      <c r="B141" t="s">
+        <v>14</v>
+      </c>
+      <c r="C141" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141" t="s">
+        <v>12</v>
+      </c>
+      <c r="E141" t="s">
+        <v>547</v>
+      </c>
+      <c r="F141">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>548</v>
+      </c>
+      <c r="B142" t="s">
+        <v>549</v>
+      </c>
+      <c r="C142" t="s">
+        <v>140</v>
+      </c>
+      <c r="D142" t="s">
+        <v>550</v>
+      </c>
+      <c r="E142" t="s">
+        <v>551</v>
+      </c>
+      <c r="F142">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>552</v>
+      </c>
+      <c r="B143" t="s">
+        <v>96</v>
+      </c>
+      <c r="C143" t="s">
+        <v>95</v>
+      </c>
+      <c r="D143" t="s">
+        <v>258</v>
+      </c>
+      <c r="E143" t="s">
+        <v>276</v>
+      </c>
+      <c r="F143">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>553</v>
+      </c>
+      <c r="B144" t="s">
+        <v>96</v>
+      </c>
+      <c r="C144" t="s">
+        <v>95</v>
+      </c>
+      <c r="D144" t="s">
+        <v>258</v>
+      </c>
+      <c r="E144" t="s">
+        <v>276</v>
+      </c>
+      <c r="F144">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>554</v>
+      </c>
+      <c r="B145" t="s">
+        <v>88</v>
+      </c>
+      <c r="C145" t="s">
+        <v>73</v>
+      </c>
+      <c r="D145" t="s">
+        <v>259</v>
+      </c>
+      <c r="E145" t="s">
+        <v>555</v>
+      </c>
+      <c r="F145">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>556</v>
+      </c>
+      <c r="B146" t="s">
+        <v>256</v>
+      </c>
+      <c r="C146" t="s">
+        <v>255</v>
+      </c>
+      <c r="D146" t="s">
+        <v>0</v>
+      </c>
+      <c r="E146" t="s">
+        <v>557</v>
+      </c>
+      <c r="F146">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>558</v>
+      </c>
+      <c r="B147" t="s">
+        <v>251</v>
+      </c>
+      <c r="C147" t="s">
+        <v>250</v>
+      </c>
+      <c r="D147" t="s">
+        <v>249</v>
+      </c>
+      <c r="E147" t="s">
+        <v>559</v>
+      </c>
+      <c r="F147">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>560</v>
+      </c>
+      <c r="B148" t="s">
+        <v>120</v>
+      </c>
+      <c r="C148" t="s">
+        <v>119</v>
+      </c>
+      <c r="D148" t="s">
+        <v>118</v>
+      </c>
+      <c r="E148" t="s">
+        <v>561</v>
+      </c>
+      <c r="F148">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>562</v>
+      </c>
+      <c r="B149" t="s">
+        <v>50</v>
+      </c>
+      <c r="C149" t="s">
+        <v>49</v>
+      </c>
+      <c r="D149" t="s">
+        <v>48</v>
+      </c>
+      <c r="E149" t="s">
+        <v>359</v>
+      </c>
+      <c r="F149">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>563</v>
+      </c>
+      <c r="B150" t="s">
+        <v>17</v>
+      </c>
+      <c r="C150" t="s">
+        <v>564</v>
+      </c>
+      <c r="D150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E150" t="s">
+        <v>565</v>
+      </c>
+      <c r="F150">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>566</v>
+      </c>
+      <c r="B151" t="s">
+        <v>195</v>
+      </c>
+      <c r="C151" t="s">
+        <v>140</v>
+      </c>
+      <c r="D151" t="s">
+        <v>193</v>
+      </c>
+      <c r="E151" t="s">
+        <v>337</v>
+      </c>
+      <c r="F151">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>567</v>
+      </c>
+      <c r="B152" t="s">
+        <v>96</v>
+      </c>
+      <c r="C152" t="s">
+        <v>95</v>
+      </c>
+      <c r="D152" t="s">
+        <v>258</v>
+      </c>
+      <c r="E152" t="s">
+        <v>276</v>
+      </c>
+      <c r="F152">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>568</v>
+      </c>
+      <c r="B153" t="s">
+        <v>266</v>
+      </c>
+      <c r="C153" t="s">
+        <v>36</v>
+      </c>
+      <c r="D153" t="s">
+        <v>265</v>
+      </c>
+      <c r="E153" t="s">
+        <v>353</v>
+      </c>
+      <c r="F153">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>569</v>
+      </c>
+      <c r="B154" t="s">
+        <v>126</v>
+      </c>
+      <c r="C154" t="s">
+        <v>125</v>
+      </c>
+      <c r="D154" t="s">
+        <v>124</v>
+      </c>
+      <c r="E154" t="s">
+        <v>570</v>
+      </c>
+      <c r="F154">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>571</v>
+      </c>
+      <c r="B155" t="s">
+        <v>94</v>
+      </c>
+      <c r="C155" t="s">
+        <v>93</v>
+      </c>
+      <c r="D155" t="s">
+        <v>92</v>
+      </c>
+      <c r="E155" t="s">
+        <v>276</v>
+      </c>
+      <c r="F155">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>572</v>
+      </c>
+      <c r="B156" t="s">
+        <v>573</v>
+      </c>
+      <c r="C156" t="s">
+        <v>36</v>
+      </c>
+      <c r="D156" t="s">
+        <v>574</v>
+      </c>
+      <c r="E156" t="s">
+        <v>298</v>
+      </c>
+      <c r="F156">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>575</v>
+      </c>
+      <c r="B157" t="s">
+        <v>576</v>
+      </c>
+      <c r="C157" t="s">
+        <v>36</v>
+      </c>
+      <c r="D157" t="s">
+        <v>269</v>
+      </c>
+      <c r="E157" t="s">
+        <v>276</v>
+      </c>
+      <c r="F157">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>266</v>
+      </c>
+      <c r="C158" t="s">
+        <v>36</v>
+      </c>
+      <c r="D158" t="s">
+        <v>265</v>
+      </c>
+      <c r="E158" t="s">
+        <v>353</v>
+      </c>
+      <c r="F158">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>577</v>
+      </c>
+      <c r="B159" t="s">
+        <v>578</v>
+      </c>
+      <c r="C159" t="s">
+        <v>64</v>
+      </c>
+      <c r="D159" t="s">
+        <v>579</v>
+      </c>
+      <c r="E159" t="s">
+        <v>580</v>
+      </c>
+      <c r="F159">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>581</v>
+      </c>
+      <c r="B160" t="s">
+        <v>96</v>
+      </c>
+      <c r="C160" t="s">
+        <v>95</v>
+      </c>
+      <c r="D160" t="s">
+        <v>258</v>
+      </c>
+      <c r="E160" t="s">
+        <v>276</v>
+      </c>
+      <c r="F160">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>582</v>
+      </c>
+      <c r="B161" t="s">
+        <v>213</v>
+      </c>
+      <c r="C161" t="s">
+        <v>212</v>
+      </c>
+      <c r="D161" t="s">
+        <v>211</v>
+      </c>
+      <c r="E161" t="s">
+        <v>583</v>
+      </c>
+      <c r="F161">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>584</v>
+      </c>
+      <c r="B162" t="s">
+        <v>96</v>
+      </c>
+      <c r="C162" t="s">
+        <v>95</v>
+      </c>
+      <c r="D162" t="s">
+        <v>258</v>
+      </c>
+      <c r="E162" t="s">
+        <v>276</v>
+      </c>
+      <c r="F162">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>585</v>
+      </c>
+      <c r="B163" t="s">
+        <v>292</v>
+      </c>
+      <c r="C163" t="s">
+        <v>36</v>
+      </c>
+      <c r="D163" t="s">
+        <v>293</v>
+      </c>
+      <c r="E163" t="s">
+        <v>276</v>
+      </c>
+      <c r="F163">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>586</v>
+      </c>
+      <c r="B164" t="s">
+        <v>23</v>
+      </c>
+      <c r="C164" t="s">
+        <v>22</v>
+      </c>
+      <c r="D164" t="s">
+        <v>21</v>
+      </c>
+      <c r="E164" t="s">
+        <v>337</v>
+      </c>
+      <c r="F164">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>587</v>
+      </c>
+      <c r="B165" t="s">
+        <v>588</v>
+      </c>
+      <c r="C165" t="s">
+        <v>128</v>
+      </c>
+      <c r="D165" t="s">
+        <v>127</v>
+      </c>
+      <c r="E165" t="s">
+        <v>298</v>
+      </c>
+      <c r="F165">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>589</v>
+      </c>
+      <c r="B166" t="s">
+        <v>111</v>
+      </c>
+      <c r="C166" t="s">
+        <v>590</v>
+      </c>
+      <c r="D166" t="s">
+        <v>109</v>
+      </c>
+      <c r="E166" t="s">
+        <v>591</v>
+      </c>
+      <c r="F166">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>592</v>
+      </c>
+      <c r="B167" t="s">
+        <v>300</v>
+      </c>
+      <c r="C167" t="s">
+        <v>301</v>
+      </c>
+      <c r="D167" t="s">
+        <v>302</v>
+      </c>
+      <c r="E167" t="s">
+        <v>303</v>
+      </c>
+      <c r="F167">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>593</v>
+      </c>
+      <c r="C168" t="s">
+        <v>594</v>
+      </c>
+      <c r="D168" t="s">
+        <v>269</v>
+      </c>
+      <c r="E168" t="s">
+        <v>303</v>
+      </c>
+      <c r="F168">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>595</v>
+      </c>
+      <c r="B169" t="s">
+        <v>596</v>
+      </c>
+      <c r="C169" t="s">
+        <v>36</v>
+      </c>
+      <c r="D169" t="s">
+        <v>597</v>
+      </c>
+      <c r="E169" t="s">
+        <v>276</v>
+      </c>
+      <c r="F169">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>165</v>
+      </c>
+      <c r="C170" t="s">
+        <v>164</v>
+      </c>
+      <c r="D170" t="s">
+        <v>163</v>
+      </c>
+      <c r="E170" t="s">
+        <v>276</v>
+      </c>
+      <c r="F170">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>598</v>
+      </c>
+      <c r="B171" t="s">
+        <v>310</v>
+      </c>
+      <c r="C171" t="s">
+        <v>36</v>
+      </c>
+      <c r="D171" t="s">
+        <v>311</v>
+      </c>
+      <c r="E171" t="s">
+        <v>276</v>
+      </c>
+      <c r="F171">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>599</v>
+      </c>
+      <c r="C172" t="s">
+        <v>36</v>
+      </c>
+      <c r="D172" t="s">
+        <v>269</v>
+      </c>
+      <c r="E172" t="s">
+        <v>276</v>
+      </c>
+      <c r="F172">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>600</v>
+      </c>
+      <c r="B173" t="s">
+        <v>601</v>
+      </c>
+      <c r="C173" t="s">
+        <v>93</v>
+      </c>
+      <c r="D173" t="s">
+        <v>602</v>
+      </c>
+      <c r="E173" t="s">
+        <v>324</v>
+      </c>
+      <c r="F173">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>603</v>
+      </c>
+      <c r="B174" t="s">
+        <v>96</v>
+      </c>
+      <c r="C174" t="s">
+        <v>95</v>
+      </c>
+      <c r="D174" t="s">
+        <v>258</v>
+      </c>
+      <c r="E174" t="s">
+        <v>276</v>
+      </c>
+      <c r="F174">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>604</v>
+      </c>
+      <c r="B175" t="s">
+        <v>448</v>
+      </c>
+      <c r="C175" t="s">
+        <v>140</v>
+      </c>
+      <c r="D175" t="s">
+        <v>449</v>
+      </c>
+      <c r="E175" t="s">
+        <v>337</v>
+      </c>
+      <c r="F175">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>605</v>
+      </c>
+      <c r="B176" t="s">
+        <v>396</v>
+      </c>
+      <c r="C176" t="s">
+        <v>36</v>
+      </c>
+      <c r="D176" t="s">
+        <v>397</v>
+      </c>
+      <c r="E176" t="s">
+        <v>276</v>
+      </c>
+      <c r="F176">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>606</v>
+      </c>
+      <c r="B177" t="s">
+        <v>607</v>
+      </c>
+      <c r="C177" t="s">
+        <v>608</v>
+      </c>
+      <c r="D177" t="s">
+        <v>609</v>
+      </c>
+      <c r="E177" t="s">
+        <v>298</v>
+      </c>
+      <c r="F177">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>610</v>
+      </c>
+      <c r="B178" t="s">
+        <v>195</v>
+      </c>
+      <c r="C178" t="s">
+        <v>140</v>
+      </c>
+      <c r="D178" t="s">
+        <v>193</v>
+      </c>
+      <c r="E178" t="s">
+        <v>337</v>
+      </c>
+      <c r="F178">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>611</v>
+      </c>
+      <c r="B179" t="s">
+        <v>198</v>
+      </c>
+      <c r="C179" t="s">
+        <v>197</v>
+      </c>
+      <c r="D179" t="s">
+        <v>196</v>
+      </c>
+      <c r="E179" t="s">
+        <v>612</v>
+      </c>
+      <c r="F179">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>613</v>
+      </c>
+      <c r="B180" t="s">
+        <v>396</v>
+      </c>
+      <c r="C180" t="s">
+        <v>36</v>
+      </c>
+      <c r="D180" t="s">
+        <v>397</v>
+      </c>
+      <c r="E180" t="s">
+        <v>276</v>
+      </c>
+      <c r="F180">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>614</v>
+      </c>
+      <c r="C181" t="s">
+        <v>36</v>
+      </c>
+      <c r="D181" t="s">
+        <v>269</v>
+      </c>
+      <c r="E181" t="s">
+        <v>276</v>
+      </c>
+      <c r="F181">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>615</v>
+      </c>
+      <c r="B182" t="s">
+        <v>616</v>
+      </c>
+      <c r="C182" t="s">
+        <v>617</v>
+      </c>
+      <c r="D182" t="s">
+        <v>618</v>
+      </c>
+      <c r="E182" t="s">
+        <v>619</v>
+      </c>
+      <c r="F182">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>620</v>
+      </c>
+      <c r="B183" t="s">
+        <v>621</v>
+      </c>
+      <c r="C183" t="s">
+        <v>246</v>
+      </c>
+      <c r="D183" t="s">
+        <v>622</v>
+      </c>
+      <c r="E183" t="s">
+        <v>416</v>
+      </c>
+      <c r="F183">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>623</v>
+      </c>
+      <c r="B184" t="s">
+        <v>8</v>
+      </c>
+      <c r="C184" t="s">
+        <v>7</v>
+      </c>
+      <c r="D184" t="s">
+        <v>6</v>
+      </c>
+      <c r="E184" t="s">
+        <v>624</v>
+      </c>
+      <c r="F184">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>625</v>
+      </c>
+      <c r="B185" t="s">
+        <v>626</v>
+      </c>
+      <c r="C185" t="s">
+        <v>93</v>
+      </c>
+      <c r="D185" t="s">
+        <v>627</v>
+      </c>
+      <c r="E185" t="s">
+        <v>324</v>
+      </c>
+      <c r="F185">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>628</v>
+      </c>
+      <c r="B186" t="s">
+        <v>629</v>
+      </c>
+      <c r="C186" t="s">
+        <v>36</v>
+      </c>
+      <c r="D186" t="s">
+        <v>269</v>
+      </c>
+      <c r="E186" t="s">
+        <v>276</v>
+      </c>
+      <c r="F186">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>266</v>
+      </c>
+      <c r="C187" t="s">
+        <v>36</v>
+      </c>
+      <c r="D187" t="s">
+        <v>265</v>
+      </c>
+      <c r="E187" t="s">
+        <v>353</v>
+      </c>
+      <c r="F187">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>630</v>
+      </c>
+      <c r="B188" t="s">
+        <v>204</v>
+      </c>
+      <c r="C188" t="s">
+        <v>203</v>
+      </c>
+      <c r="D188" t="s">
+        <v>202</v>
+      </c>
+      <c r="E188" t="s">
+        <v>504</v>
+      </c>
+      <c r="F188">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>26</v>
+      </c>
+      <c r="C189" t="s">
+        <v>515</v>
+      </c>
+      <c r="D189" t="s">
+        <v>24</v>
+      </c>
+      <c r="E189" t="s">
+        <v>516</v>
+      </c>
+      <c r="F189">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>631</v>
+      </c>
+      <c r="B190" t="s">
+        <v>168</v>
+      </c>
+      <c r="C190" t="s">
+        <v>167</v>
+      </c>
+      <c r="D190" t="s">
+        <v>166</v>
+      </c>
+      <c r="E190" t="s">
+        <v>632</v>
+      </c>
+      <c r="F190">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>266</v>
+      </c>
+      <c r="C191" t="s">
+        <v>36</v>
+      </c>
+      <c r="D191" t="s">
+        <v>265</v>
+      </c>
+      <c r="E191" t="s">
+        <v>353</v>
+      </c>
+      <c r="F191">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>633</v>
+      </c>
+      <c r="B192" t="s">
+        <v>634</v>
+      </c>
+      <c r="C192" t="s">
+        <v>110</v>
+      </c>
+      <c r="D192" t="s">
+        <v>635</v>
+      </c>
+      <c r="E192" t="s">
+        <v>636</v>
+      </c>
+      <c r="F192">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>637</v>
+      </c>
+      <c r="B193" t="s">
+        <v>216</v>
+      </c>
+      <c r="C193" t="s">
+        <v>215</v>
+      </c>
+      <c r="D193" t="s">
+        <v>214</v>
+      </c>
+      <c r="E193" t="s">
+        <v>400</v>
+      </c>
+      <c r="F193">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>638</v>
+      </c>
+      <c r="B194" t="s">
+        <v>123</v>
+      </c>
+      <c r="C194" t="s">
+        <v>122</v>
+      </c>
+      <c r="D194" t="s">
+        <v>121</v>
+      </c>
+      <c r="E194" t="s">
+        <v>400</v>
+      </c>
+      <c r="F194">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>639</v>
+      </c>
+      <c r="B195" t="s">
+        <v>153</v>
+      </c>
+      <c r="C195" t="s">
+        <v>152</v>
+      </c>
+      <c r="D195" t="s">
+        <v>151</v>
+      </c>
+      <c r="E195" t="s">
+        <v>298</v>
+      </c>
+      <c r="F195">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>640</v>
+      </c>
+      <c r="B196" t="s">
+        <v>396</v>
+      </c>
+      <c r="C196" t="s">
+        <v>36</v>
+      </c>
+      <c r="D196" t="s">
+        <v>397</v>
+      </c>
+      <c r="E196" t="s">
+        <v>276</v>
+      </c>
+      <c r="F196">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>641</v>
+      </c>
+      <c r="C197" t="s">
+        <v>36</v>
+      </c>
+      <c r="D197" t="s">
+        <v>269</v>
+      </c>
+      <c r="E197" t="s">
+        <v>276</v>
+      </c>
+      <c r="F197">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>642</v>
+      </c>
+      <c r="B198" t="s">
+        <v>210</v>
+      </c>
+      <c r="C198" t="s">
+        <v>209</v>
+      </c>
+      <c r="D198" t="s">
+        <v>208</v>
+      </c>
+      <c r="E198" t="s">
+        <v>643</v>
+      </c>
+      <c r="F198">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>644</v>
+      </c>
+      <c r="B199" t="s">
+        <v>96</v>
+      </c>
+      <c r="C199" t="s">
+        <v>95</v>
+      </c>
+      <c r="D199" t="s">
+        <v>258</v>
+      </c>
+      <c r="E199" t="s">
+        <v>276</v>
+      </c>
+      <c r="F199">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>645</v>
+      </c>
+      <c r="B200" t="s">
+        <v>254</v>
+      </c>
+      <c r="C200" t="s">
+        <v>253</v>
+      </c>
+      <c r="D200" t="s">
+        <v>252</v>
+      </c>
+      <c r="E200" t="s">
+        <v>547</v>
+      </c>
+      <c r="F200">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>646</v>
+      </c>
+      <c r="B201" t="s">
+        <v>647</v>
+      </c>
+      <c r="C201" t="s">
+        <v>648</v>
+      </c>
+      <c r="D201" t="s">
+        <v>649</v>
+      </c>
+      <c r="E201" t="s">
+        <v>580</v>
+      </c>
+      <c r="F201">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>650</v>
+      </c>
+      <c r="B202" t="s">
+        <v>270</v>
+      </c>
+      <c r="C202" t="s">
+        <v>271</v>
+      </c>
+      <c r="D202" t="s">
+        <v>271</v>
+      </c>
+      <c r="E202" t="s">
+        <v>272</v>
+      </c>
+      <c r="F202">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>651</v>
+      </c>
+      <c r="B203" t="s">
+        <v>186</v>
+      </c>
+      <c r="C203" t="s">
+        <v>140</v>
+      </c>
+      <c r="D203" t="s">
+        <v>184</v>
+      </c>
+      <c r="E203" t="s">
+        <v>337</v>
+      </c>
+      <c r="F203">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>652</v>
+      </c>
+      <c r="B204" t="s">
+        <v>266</v>
+      </c>
+      <c r="C204" t="s">
+        <v>36</v>
+      </c>
+      <c r="D204" t="s">
+        <v>265</v>
+      </c>
+      <c r="E204" t="s">
+        <v>276</v>
+      </c>
+      <c r="F204">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>653</v>
+      </c>
+      <c r="B205" t="s">
+        <v>237</v>
+      </c>
+      <c r="C205" t="s">
+        <v>286</v>
+      </c>
+      <c r="D205" t="s">
+        <v>235</v>
+      </c>
+      <c r="E205" t="s">
+        <v>287</v>
+      </c>
+      <c r="F205">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
+        <v>126</v>
+      </c>
+      <c r="C206" t="s">
+        <v>125</v>
+      </c>
+      <c r="D206" t="s">
+        <v>124</v>
+      </c>
+      <c r="E206" t="s">
+        <v>570</v>
+      </c>
+      <c r="F206">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>23</v>
+      </c>
+      <c r="C207" t="s">
+        <v>654</v>
+      </c>
+      <c r="D207" t="s">
+        <v>21</v>
+      </c>
+      <c r="E207" t="s">
+        <v>337</v>
+      </c>
+      <c r="F207">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
+        <v>655</v>
+      </c>
+      <c r="C208" t="s">
+        <v>656</v>
+      </c>
+      <c r="D208" t="s">
+        <v>269</v>
+      </c>
+      <c r="E208" t="s">
+        <v>337</v>
+      </c>
+      <c r="F208">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>657</v>
+      </c>
+      <c r="B209" t="s">
+        <v>307</v>
+      </c>
+      <c r="C209" t="s">
+        <v>34</v>
+      </c>
+      <c r="D209" t="s">
+        <v>308</v>
+      </c>
+      <c r="E209" t="s">
+        <v>281</v>
+      </c>
+      <c r="F209">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>658</v>
+      </c>
+      <c r="B210" t="s">
+        <v>292</v>
+      </c>
+      <c r="C210" t="s">
+        <v>36</v>
+      </c>
+      <c r="D210" t="s">
+        <v>293</v>
+      </c>
+      <c r="E210" t="s">
+        <v>276</v>
+      </c>
+      <c r="F210">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>659</v>
+      </c>
+      <c r="B211" t="s">
+        <v>292</v>
+      </c>
+      <c r="C211" t="s">
+        <v>36</v>
+      </c>
+      <c r="D211" t="s">
+        <v>293</v>
+      </c>
+      <c r="E211" t="s">
+        <v>276</v>
+      </c>
+      <c r="F211">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>660</v>
+      </c>
+      <c r="B212" t="s">
+        <v>292</v>
+      </c>
+      <c r="C212" t="s">
+        <v>36</v>
+      </c>
+      <c r="D212" t="s">
+        <v>293</v>
+      </c>
+      <c r="E212" t="s">
+        <v>276</v>
+      </c>
+      <c r="F212">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>661</v>
+      </c>
+      <c r="B213" t="s">
+        <v>240</v>
+      </c>
+      <c r="C213" t="s">
+        <v>662</v>
+      </c>
+      <c r="D213" t="s">
+        <v>238</v>
+      </c>
+      <c r="E213" t="s">
+        <v>663</v>
+      </c>
+      <c r="F213">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>664</v>
+      </c>
+      <c r="B214" t="s">
+        <v>96</v>
+      </c>
+      <c r="C214" t="s">
+        <v>95</v>
+      </c>
+      <c r="D214" t="s">
+        <v>258</v>
+      </c>
+      <c r="E214" t="s">
+        <v>276</v>
+      </c>
+      <c r="F214">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>665</v>
+      </c>
+      <c r="B215" t="s">
+        <v>207</v>
+      </c>
+      <c r="C215" t="s">
+        <v>206</v>
+      </c>
+      <c r="D215" t="s">
+        <v>205</v>
+      </c>
+      <c r="E215" t="s">
+        <v>290</v>
+      </c>
+      <c r="F215">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>666</v>
+      </c>
+      <c r="B216" t="s">
+        <v>667</v>
+      </c>
+      <c r="C216" t="s">
+        <v>668</v>
+      </c>
+      <c r="D216" t="s">
+        <v>669</v>
+      </c>
+      <c r="E216" t="s">
+        <v>670</v>
+      </c>
+      <c r="F216">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>671</v>
+      </c>
+      <c r="B217" t="s">
+        <v>195</v>
+      </c>
+      <c r="C217" t="s">
+        <v>140</v>
+      </c>
+      <c r="D217" t="s">
+        <v>193</v>
+      </c>
+      <c r="E217" t="s">
+        <v>337</v>
+      </c>
+      <c r="F217">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>672</v>
+      </c>
+      <c r="B218" t="s">
+        <v>231</v>
+      </c>
+      <c r="C218" t="s">
+        <v>673</v>
+      </c>
+      <c r="D218" t="s">
+        <v>229</v>
+      </c>
+      <c r="E218" t="s">
+        <v>674</v>
+      </c>
+      <c r="F218">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>675</v>
+      </c>
+      <c r="B219" t="s">
+        <v>177</v>
+      </c>
+      <c r="C219" t="s">
+        <v>93</v>
+      </c>
+      <c r="D219" t="s">
+        <v>175</v>
+      </c>
+      <c r="E219" t="s">
+        <v>276</v>
+      </c>
+      <c r="F219">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>676</v>
+      </c>
+      <c r="B220" t="s">
+        <v>189</v>
+      </c>
+      <c r="C220" t="s">
+        <v>188</v>
+      </c>
+      <c r="D220" t="s">
+        <v>187</v>
+      </c>
+      <c r="E220" t="s">
+        <v>276</v>
+      </c>
+      <c r="F220">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>677</v>
+      </c>
+      <c r="B221" t="s">
+        <v>357</v>
+      </c>
+      <c r="C221" t="s">
+        <v>36</v>
+      </c>
+      <c r="D221" t="s">
+        <v>358</v>
+      </c>
+      <c r="E221" t="s">
+        <v>359</v>
+      </c>
+      <c r="F221">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B222" t="s">
+        <v>360</v>
+      </c>
+      <c r="C222" t="s">
+        <v>36</v>
+      </c>
+      <c r="D222" t="s">
+        <v>361</v>
+      </c>
+      <c r="E222" t="s">
+        <v>276</v>
+      </c>
+      <c r="F222">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>678</v>
+      </c>
+      <c r="B223" t="s">
+        <v>266</v>
+      </c>
+      <c r="C223" t="s">
+        <v>36</v>
+      </c>
+      <c r="D223" t="s">
+        <v>265</v>
+      </c>
+      <c r="E223" t="s">
+        <v>276</v>
+      </c>
+      <c r="F223">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>679</v>
+      </c>
+      <c r="B224" t="s">
+        <v>410</v>
+      </c>
+      <c r="C224" t="s">
+        <v>85</v>
+      </c>
+      <c r="D224" t="s">
+        <v>411</v>
+      </c>
+      <c r="E224" t="s">
+        <v>276</v>
+      </c>
+      <c r="F224">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>680</v>
+      </c>
+      <c r="B225" t="s">
+        <v>96</v>
+      </c>
+      <c r="C225" t="s">
+        <v>95</v>
+      </c>
+      <c r="D225" t="s">
+        <v>258</v>
+      </c>
+      <c r="E225" t="s">
+        <v>276</v>
+      </c>
+      <c r="F225">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>681</v>
+      </c>
+      <c r="B226" t="s">
+        <v>96</v>
+      </c>
+      <c r="C226" t="s">
+        <v>95</v>
+      </c>
+      <c r="D226" t="s">
+        <v>258</v>
+      </c>
+      <c r="E226" t="s">
+        <v>276</v>
+      </c>
+      <c r="F226">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>682</v>
+      </c>
+      <c r="B227" t="s">
+        <v>683</v>
+      </c>
+      <c r="C227" t="s">
+        <v>36</v>
+      </c>
+      <c r="D227" t="s">
+        <v>684</v>
+      </c>
+      <c r="E227" t="s">
+        <v>276</v>
+      </c>
+      <c r="F227">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>685</v>
+      </c>
+      <c r="B228" t="s">
+        <v>132</v>
+      </c>
+      <c r="C228" t="s">
+        <v>521</v>
+      </c>
+      <c r="D228" t="s">
+        <v>130</v>
+      </c>
+      <c r="E228" t="s">
+        <v>276</v>
+      </c>
+      <c r="F228">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>686</v>
+      </c>
+      <c r="B229" t="s">
+        <v>687</v>
+      </c>
+      <c r="C229" t="s">
+        <v>521</v>
+      </c>
+      <c r="D229" t="s">
+        <v>269</v>
+      </c>
+      <c r="E229" t="s">
+        <v>276</v>
+      </c>
+      <c r="F229">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>688</v>
+      </c>
+      <c r="B230" t="s">
+        <v>165</v>
+      </c>
+      <c r="C230" t="s">
+        <v>164</v>
+      </c>
+      <c r="D230" t="s">
+        <v>163</v>
+      </c>
+      <c r="E230" t="s">
+        <v>276</v>
+      </c>
+      <c r="F230">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>689</v>
+      </c>
+      <c r="B231" t="s">
+        <v>690</v>
+      </c>
+      <c r="C231" t="s">
+        <v>34</v>
+      </c>
+      <c r="D231" t="s">
+        <v>33</v>
+      </c>
+      <c r="E231" t="s">
+        <v>281</v>
+      </c>
+      <c r="F231">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B232" t="s">
+        <v>691</v>
+      </c>
+      <c r="C232" t="s">
+        <v>34</v>
+      </c>
+      <c r="D232" t="s">
+        <v>269</v>
+      </c>
+      <c r="E232" t="s">
+        <v>281</v>
+      </c>
+      <c r="F232">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>692</v>
+      </c>
+      <c r="B233" t="s">
+        <v>270</v>
+      </c>
+      <c r="C233" t="s">
+        <v>271</v>
+      </c>
+      <c r="D233" t="s">
+        <v>271</v>
+      </c>
+      <c r="E233" t="s">
+        <v>272</v>
+      </c>
+      <c r="F233">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>693</v>
+      </c>
+      <c r="B234" t="s">
+        <v>96</v>
+      </c>
+      <c r="C234" t="s">
+        <v>95</v>
+      </c>
+      <c r="D234" t="s">
+        <v>258</v>
+      </c>
+      <c r="E234" t="s">
+        <v>276</v>
+      </c>
+      <c r="F234">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>694</v>
+      </c>
+      <c r="B235" t="s">
+        <v>695</v>
+      </c>
+      <c r="C235" t="s">
+        <v>34</v>
+      </c>
+      <c r="D235" t="s">
+        <v>696</v>
+      </c>
+      <c r="E235" t="s">
+        <v>540</v>
+      </c>
+      <c r="F235">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>697</v>
+      </c>
+      <c r="B236" t="s">
+        <v>698</v>
+      </c>
+      <c r="C236" t="s">
+        <v>699</v>
+      </c>
+      <c r="D236" t="s">
+        <v>700</v>
+      </c>
+      <c r="E236" t="s">
+        <v>276</v>
+      </c>
+      <c r="F236">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>701</v>
+      </c>
+      <c r="B237" t="s">
+        <v>702</v>
+      </c>
+      <c r="C237" t="s">
+        <v>703</v>
+      </c>
+      <c r="D237" t="s">
+        <v>704</v>
+      </c>
+      <c r="E237" t="s">
+        <v>540</v>
+      </c>
+      <c r="F237">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>705</v>
+      </c>
+      <c r="B238" t="s">
+        <v>706</v>
+      </c>
+      <c r="C238" t="s">
+        <v>36</v>
+      </c>
+      <c r="D238" t="s">
+        <v>707</v>
+      </c>
+      <c r="E238" t="s">
+        <v>276</v>
+      </c>
+      <c r="F238">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>708</v>
+      </c>
+      <c r="B239" t="s">
+        <v>222</v>
+      </c>
+      <c r="C239" t="s">
+        <v>64</v>
+      </c>
+      <c r="D239" t="s">
+        <v>220</v>
+      </c>
+      <c r="E239" t="s">
+        <v>276</v>
+      </c>
+      <c r="F239">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>709</v>
+      </c>
+      <c r="B240" t="s">
+        <v>710</v>
+      </c>
+      <c r="C240" t="s">
+        <v>246</v>
+      </c>
+      <c r="D240" t="s">
+        <v>711</v>
+      </c>
+      <c r="E240" t="s">
+        <v>712</v>
+      </c>
+      <c r="F240">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>713</v>
+      </c>
+      <c r="B241" t="s">
+        <v>549</v>
+      </c>
+      <c r="C241" t="s">
+        <v>140</v>
+      </c>
+      <c r="D241" t="s">
+        <v>550</v>
+      </c>
+      <c r="E241" t="s">
+        <v>714</v>
+      </c>
+      <c r="F241">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>715</v>
+      </c>
+      <c r="B242" t="s">
+        <v>219</v>
+      </c>
+      <c r="C242" t="s">
+        <v>716</v>
+      </c>
+      <c r="D242" t="s">
+        <v>217</v>
+      </c>
+      <c r="E242" t="s">
+        <v>540</v>
+      </c>
+      <c r="F242">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>717</v>
+      </c>
+      <c r="B243" t="s">
+        <v>718</v>
+      </c>
+      <c r="C243" t="s">
+        <v>36</v>
+      </c>
+      <c r="D243" t="s">
+        <v>719</v>
+      </c>
+      <c r="E243" t="s">
+        <v>276</v>
+      </c>
+      <c r="F243">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>720</v>
+      </c>
+      <c r="B244" t="s">
+        <v>721</v>
+      </c>
+      <c r="C244" t="s">
+        <v>722</v>
+      </c>
+      <c r="D244" t="s">
+        <v>723</v>
+      </c>
+      <c r="E244" t="s">
+        <v>724</v>
+      </c>
+      <c r="F244">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>725</v>
+      </c>
+      <c r="B245" t="s">
+        <v>726</v>
+      </c>
+      <c r="C245" t="s">
+        <v>521</v>
+      </c>
+      <c r="D245" t="s">
+        <v>727</v>
+      </c>
+      <c r="E245" t="s">
+        <v>276</v>
+      </c>
+      <c r="F245">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>728</v>
+      </c>
+      <c r="B246" t="s">
+        <v>99</v>
+      </c>
+      <c r="C246" t="s">
+        <v>98</v>
+      </c>
+      <c r="D246" t="s">
+        <v>97</v>
+      </c>
+      <c r="E246" t="s">
+        <v>729</v>
+      </c>
+      <c r="F246">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>730</v>
+      </c>
+      <c r="B247" t="s">
+        <v>195</v>
+      </c>
+      <c r="C247" t="s">
+        <v>140</v>
+      </c>
+      <c r="D247" t="s">
+        <v>193</v>
+      </c>
+      <c r="E247" t="s">
+        <v>337</v>
+      </c>
+      <c r="F247">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>731</v>
+      </c>
+      <c r="B248" t="s">
+        <v>732</v>
+      </c>
+      <c r="C248" t="s">
+        <v>733</v>
+      </c>
+      <c r="D248" t="s">
+        <v>734</v>
+      </c>
+      <c r="E248" t="s">
+        <v>735</v>
+      </c>
+      <c r="F248">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>736</v>
+      </c>
+      <c r="B249" t="s">
+        <v>737</v>
+      </c>
+      <c r="C249" t="s">
+        <v>738</v>
+      </c>
+      <c r="D249" t="s">
+        <v>739</v>
+      </c>
+      <c r="E249" t="s">
+        <v>272</v>
+      </c>
+      <c r="F249">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>740</v>
+      </c>
+      <c r="B250" t="s">
+        <v>741</v>
+      </c>
+      <c r="C250" t="s">
+        <v>36</v>
+      </c>
+      <c r="D250" t="s">
+        <v>742</v>
+      </c>
+      <c r="E250" t="s">
+        <v>276</v>
+      </c>
+      <c r="F250">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>743</v>
+      </c>
+      <c r="B251" t="s">
+        <v>307</v>
+      </c>
+      <c r="C251" t="s">
+        <v>34</v>
+      </c>
+      <c r="D251" t="s">
+        <v>308</v>
+      </c>
+      <c r="E251" t="s">
+        <v>281</v>
+      </c>
+      <c r="F251">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B252" t="s">
+        <v>744</v>
+      </c>
+      <c r="C252" t="s">
+        <v>34</v>
+      </c>
+      <c r="D252" t="s">
+        <v>269</v>
+      </c>
+      <c r="E252" t="s">
+        <v>281</v>
+      </c>
+      <c r="F252">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>745</v>
+      </c>
+      <c r="B253" t="s">
+        <v>53</v>
+      </c>
+      <c r="C253" t="s">
+        <v>52</v>
+      </c>
+      <c r="D253" t="s">
+        <v>51</v>
+      </c>
+      <c r="E253" t="s">
+        <v>746</v>
+      </c>
+      <c r="F253">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>747</v>
+      </c>
+      <c r="B254" t="s">
+        <v>616</v>
+      </c>
+      <c r="C254" t="s">
+        <v>617</v>
+      </c>
+      <c r="D254" t="s">
+        <v>618</v>
+      </c>
+      <c r="E254" t="s">
+        <v>619</v>
+      </c>
+      <c r="F254">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>748</v>
+      </c>
+      <c r="B255" t="s">
+        <v>749</v>
+      </c>
+      <c r="C255" t="s">
+        <v>750</v>
+      </c>
+      <c r="D255" t="s">
+        <v>751</v>
+      </c>
+      <c r="E255" t="s">
+        <v>752</v>
+      </c>
+      <c r="F255">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>753</v>
+      </c>
+      <c r="B256" t="s">
+        <v>266</v>
+      </c>
+      <c r="C256" t="s">
+        <v>36</v>
+      </c>
+      <c r="D256" t="s">
+        <v>265</v>
+      </c>
+      <c r="E256" t="s">
+        <v>353</v>
+      </c>
+      <c r="F256">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>754</v>
+      </c>
+      <c r="B257" t="s">
+        <v>310</v>
+      </c>
+      <c r="C257" t="s">
+        <v>36</v>
+      </c>
+      <c r="D257" t="s">
+        <v>311</v>
+      </c>
+      <c r="E257" t="s">
+        <v>276</v>
+      </c>
+      <c r="F257">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B258" t="s">
+        <v>755</v>
+      </c>
+      <c r="C258" t="s">
+        <v>36</v>
+      </c>
+      <c r="D258" t="s">
+        <v>269</v>
+      </c>
+      <c r="E258" t="s">
+        <v>276</v>
+      </c>
+      <c r="F258">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>756</v>
+      </c>
+      <c r="B259" t="s">
+        <v>29</v>
+      </c>
+      <c r="C259" t="s">
+        <v>521</v>
+      </c>
+      <c r="D259" t="s">
+        <v>27</v>
+      </c>
+      <c r="E259" t="s">
+        <v>276</v>
+      </c>
+      <c r="F259">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>757</v>
+      </c>
+      <c r="B260" t="s">
+        <v>758</v>
+      </c>
+      <c r="C260" t="s">
+        <v>759</v>
+      </c>
+      <c r="D260" t="s">
+        <v>760</v>
+      </c>
+      <c r="E260" t="s">
+        <v>761</v>
+      </c>
+      <c r="F260">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B261" t="s">
+        <v>762</v>
+      </c>
+      <c r="C261" t="s">
+        <v>271</v>
+      </c>
+      <c r="D261" t="s">
+        <v>271</v>
+      </c>
+      <c r="E261" t="s">
+        <v>272</v>
+      </c>
+      <c r="F261">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>763</v>
+      </c>
+      <c r="B262" t="s">
+        <v>68</v>
+      </c>
+      <c r="C262" t="s">
+        <v>67</v>
+      </c>
+      <c r="D262" t="s">
+        <v>66</v>
+      </c>
+      <c r="E262" t="s">
+        <v>322</v>
+      </c>
+      <c r="F262">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>764</v>
+      </c>
+      <c r="B263" t="s">
+        <v>282</v>
+      </c>
+      <c r="C263" t="s">
+        <v>34</v>
+      </c>
+      <c r="D263" t="s">
+        <v>33</v>
+      </c>
+      <c r="E263" t="s">
+        <v>281</v>
+      </c>
+      <c r="F263">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>765</v>
+      </c>
+      <c r="B264" t="s">
+        <v>266</v>
+      </c>
+      <c r="C264" t="s">
+        <v>36</v>
+      </c>
+      <c r="D264" t="s">
+        <v>265</v>
+      </c>
+      <c r="E264" t="s">
+        <v>353</v>
+      </c>
+      <c r="F264">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>766</v>
+      </c>
+      <c r="B265" t="s">
+        <v>767</v>
+      </c>
+      <c r="C265" t="s">
+        <v>36</v>
+      </c>
+      <c r="D265" t="s">
+        <v>768</v>
+      </c>
+      <c r="E265" t="s">
+        <v>632</v>
+      </c>
+      <c r="F265">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>769</v>
+      </c>
+      <c r="B266" t="s">
+        <v>770</v>
+      </c>
+      <c r="C266" t="s">
+        <v>771</v>
+      </c>
+      <c r="D266" t="s">
+        <v>772</v>
+      </c>
+      <c r="E266" t="s">
+        <v>773</v>
+      </c>
+      <c r="F266">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>774</v>
+      </c>
+      <c r="B267" t="s">
+        <v>234</v>
+      </c>
+      <c r="C267" t="s">
+        <v>775</v>
+      </c>
+      <c r="D267" t="s">
+        <v>232</v>
+      </c>
+      <c r="E267" t="s">
+        <v>269</v>
+      </c>
+      <c r="F267" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>776</v>
+      </c>
+      <c r="B268" t="s">
+        <v>96</v>
+      </c>
+      <c r="C268" t="s">
+        <v>95</v>
+      </c>
+      <c r="D268" t="s">
+        <v>258</v>
+      </c>
+      <c r="E268" t="s">
+        <v>276</v>
+      </c>
+      <c r="F268">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>777</v>
+      </c>
+      <c r="B269" t="s">
+        <v>20</v>
+      </c>
+      <c r="C269" t="s">
+        <v>778</v>
+      </c>
+      <c r="D269" t="s">
+        <v>18</v>
+      </c>
+      <c r="E269" t="s">
+        <v>400</v>
+      </c>
+      <c r="F269">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>779</v>
+      </c>
+      <c r="B270" t="s">
+        <v>780</v>
+      </c>
+      <c r="C270" t="s">
+        <v>41</v>
+      </c>
+      <c r="D270" t="s">
+        <v>40</v>
+      </c>
+      <c r="E270" t="s">
+        <v>781</v>
+      </c>
+      <c r="F270">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>782</v>
+      </c>
+      <c r="B271" t="s">
+        <v>448</v>
+      </c>
+      <c r="C271" t="s">
+        <v>140</v>
+      </c>
+      <c r="D271" t="s">
+        <v>449</v>
+      </c>
+      <c r="E271" t="s">
+        <v>337</v>
+      </c>
+      <c r="F271">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>783</v>
+      </c>
+      <c r="B272" t="s">
+        <v>784</v>
+      </c>
+      <c r="C272" t="s">
+        <v>494</v>
+      </c>
+      <c r="D272" t="s">
+        <v>785</v>
+      </c>
+      <c r="E272" t="s">
+        <v>322</v>
+      </c>
+      <c r="F272">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>786</v>
+      </c>
+      <c r="B273" t="s">
+        <v>108</v>
+      </c>
+      <c r="C273" t="s">
+        <v>107</v>
+      </c>
+      <c r="D273" t="s">
+        <v>106</v>
+      </c>
+      <c r="E273" t="s">
+        <v>787</v>
+      </c>
+      <c r="F273">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>788</v>
+      </c>
+      <c r="B274" t="s">
+        <v>74</v>
+      </c>
+      <c r="C274" t="s">
+        <v>73</v>
+      </c>
+      <c r="D274" t="s">
+        <v>72</v>
+      </c>
+      <c r="E274" t="s">
+        <v>350</v>
+      </c>
+      <c r="F274">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B275" t="s">
+        <v>282</v>
+      </c>
+      <c r="C275" t="s">
+        <v>34</v>
+      </c>
+      <c r="D275" t="s">
+        <v>33</v>
+      </c>
+      <c r="E275" t="s">
+        <v>281</v>
+      </c>
+      <c r="F275">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B276" t="s">
+        <v>96</v>
+      </c>
+      <c r="C276" t="s">
+        <v>95</v>
+      </c>
+      <c r="D276" t="s">
+        <v>258</v>
+      </c>
+      <c r="E276" t="s">
+        <v>276</v>
+      </c>
+      <c r="F276">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B277" t="s">
+        <v>156</v>
+      </c>
+      <c r="C277" t="s">
+        <v>155</v>
+      </c>
+      <c r="D277" t="s">
+        <v>154</v>
+      </c>
+      <c r="E277" t="s">
+        <v>324</v>
+      </c>
+      <c r="F277">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B278" t="s">
+        <v>165</v>
+      </c>
+      <c r="C278" t="s">
+        <v>164</v>
+      </c>
+      <c r="D278" t="s">
+        <v>163</v>
+      </c>
+      <c r="E278" t="s">
+        <v>276</v>
+      </c>
+      <c r="F278">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B279" t="s">
+        <v>266</v>
+      </c>
+      <c r="C279" t="s">
+        <v>36</v>
+      </c>
+      <c r="D279" t="s">
+        <v>265</v>
+      </c>
+      <c r="E279" t="s">
+        <v>353</v>
+      </c>
+      <c r="F279">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B280" t="s">
+        <v>789</v>
+      </c>
+      <c r="C280" t="s">
+        <v>269</v>
+      </c>
+      <c r="D280" t="s">
+        <v>269</v>
+      </c>
+      <c r="E280" t="s">
+        <v>790</v>
+      </c>
+      <c r="F280" t="s">
+        <v>269</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/entry-task/cur_symbols/c_symbols.xlsx
+++ b/entry-task/cur_symbols/c_symbols.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1959" uniqueCount="706">
   <si>
     <t>MKD</t>
   </si>
@@ -2137,6 +2137,9 @@
   </si>
   <si>
     <t>som</t>
+  </si>
+  <si>
+    <t>SFr.</t>
   </si>
 </sst>
 </file>
@@ -2969,8 +2972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K116"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="C87" sqref="A1:C112"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3896,13 +3899,13 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>449</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>10</v>
+        <v>705</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>448</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="2"/>
@@ -3923,13 +3926,13 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>202</v>
+        <v>9</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>203</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="2"/>
@@ -3950,13 +3953,13 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="C37" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="2"/>
@@ -3977,13 +3980,13 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="2"/>
@@ -4004,13 +4007,13 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>394</v>
-      </c>
-      <c r="B39" t="s">
-        <v>393</v>
+        <v>75</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="C39" t="s">
-        <v>392</v>
+        <v>77</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="2"/>
@@ -4026,18 +4029,18 @@
       </c>
       <c r="K39" t="str">
         <f t="shared" si="5"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>25</v>
+        <v>394</v>
+      </c>
+      <c r="B40" t="s">
+        <v>393</v>
       </c>
       <c r="C40" t="s">
-        <v>26</v>
+        <v>392</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="2"/>
@@ -4049,19 +4052,19 @@
       </c>
       <c r="J40" t="str">
         <f t="shared" si="4"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="K40" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>X</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>24</v>
       </c>
-      <c r="B41" t="s">
-        <v>414</v>
+      <c r="B41" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C41" t="s">
         <v>26</v>
@@ -4085,13 +4088,13 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>142</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>143</v>
+        <v>24</v>
+      </c>
+      <c r="B42" t="s">
+        <v>414</v>
       </c>
       <c r="C42" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="2"/>
@@ -4103,7 +4106,7 @@
       </c>
       <c r="J42" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="K42" t="str">
         <f t="shared" si="5"/>
@@ -4112,13 +4115,13 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="2"/>
@@ -4139,13 +4142,13 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="C44" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="2"/>
@@ -4166,13 +4169,13 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>172</v>
+        <v>57</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>173</v>
+        <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>174</v>
+        <v>59</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="2"/>
@@ -4193,13 +4196,13 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="C46" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="2"/>
@@ -4220,13 +4223,13 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C47" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="2"/>
@@ -4247,13 +4250,13 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>145</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="C48" t="s">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="2"/>
@@ -4274,13 +4277,13 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>257</v>
+        <v>38</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="2"/>
@@ -4296,18 +4299,18 @@
       </c>
       <c r="K49" t="str">
         <f t="shared" si="5"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>148</v>
+        <v>4</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>149</v>
+        <v>257</v>
       </c>
       <c r="C50" t="s">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="2"/>
@@ -4323,18 +4326,18 @@
       </c>
       <c r="K50" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>X</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>200</v>
+        <v>149</v>
       </c>
       <c r="C51" t="s">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="2"/>
@@ -4346,7 +4349,7 @@
       </c>
       <c r="J51" t="str">
         <f t="shared" si="4"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="K51" t="str">
         <f t="shared" si="5"/>
@@ -4357,8 +4360,8 @@
       <c r="A52" t="s">
         <v>199</v>
       </c>
-      <c r="B52" t="s">
-        <v>438</v>
+      <c r="B52" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="C52" t="s">
         <v>201</v>
@@ -4382,13 +4385,13 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>598</v>
+        <v>199</v>
       </c>
       <c r="B53" t="s">
-        <v>697</v>
+        <v>438</v>
       </c>
       <c r="C53" t="s">
-        <v>596</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -4396,7 +4399,7 @@
         <v>598</v>
       </c>
       <c r="B54" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C54" t="s">
         <v>596</v>
@@ -4420,13 +4423,13 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>223</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>224</v>
+        <v>598</v>
+      </c>
+      <c r="B55" t="s">
+        <v>700</v>
       </c>
       <c r="C55" t="s">
-        <v>225</v>
+        <v>596</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="2"/>
@@ -4438,7 +4441,7 @@
       </c>
       <c r="J55" t="str">
         <f t="shared" ref="J55:J86" si="7">IF(COUNTIF(A:A,A55) &gt; 1, "X", "")</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="K55" t="str">
         <f t="shared" si="6"/>
@@ -4447,13 +4450,13 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>223</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>225</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="2"/>
@@ -4474,13 +4477,13 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="2"/>
@@ -4501,13 +4504,13 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>249</v>
+        <v>21</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>250</v>
+        <v>22</v>
       </c>
       <c r="C58" t="s">
-        <v>251</v>
+        <v>23</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="2"/>
@@ -4528,13 +4531,13 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>0</v>
+        <v>249</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C59" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="2"/>
@@ -4555,13 +4558,13 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>110</v>
+        <v>255</v>
       </c>
       <c r="C60" t="s">
-        <v>111</v>
+        <v>256</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" ref="H60:H80" si="8">IF(B60="","X","")</f>
@@ -4573,7 +4576,7 @@
       </c>
       <c r="J60" t="str">
         <f t="shared" si="7"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="K60" t="str">
         <f t="shared" si="6"/>
@@ -4584,8 +4587,8 @@
       <c r="A61" t="s">
         <v>109</v>
       </c>
-      <c r="B61" t="s">
-        <v>489</v>
+      <c r="B61" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="C61" t="s">
         <v>111</v>
@@ -4609,13 +4612,13 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>211</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>212</v>
+        <v>109</v>
+      </c>
+      <c r="B62" t="s">
+        <v>489</v>
       </c>
       <c r="C62" t="s">
-        <v>213</v>
+        <v>111</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="8"/>
@@ -4627,7 +4630,7 @@
       </c>
       <c r="J62" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="K62" t="str">
         <f t="shared" si="6"/>
@@ -4636,13 +4639,13 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>259</v>
+        <v>211</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>87</v>
+        <v>212</v>
       </c>
       <c r="C63" t="s">
-        <v>88</v>
+        <v>213</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="8"/>
@@ -4663,13 +4666,13 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>124</v>
+        <v>259</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="C64" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="8"/>
@@ -4690,13 +4693,13 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="C65" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" si="8"/>
@@ -4717,13 +4720,13 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="C66" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="8"/>
@@ -4735,7 +4738,7 @@
       </c>
       <c r="J66" t="str">
         <f t="shared" si="7"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="K66" t="str">
         <f t="shared" si="6"/>
@@ -4746,8 +4749,8 @@
       <c r="A67" t="s">
         <v>15</v>
       </c>
-      <c r="B67" t="s">
-        <v>463</v>
+      <c r="B67" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C67" t="s">
         <v>17</v>
@@ -4771,13 +4774,13 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>118</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>119</v>
+        <v>15</v>
+      </c>
+      <c r="B68" t="s">
+        <v>463</v>
       </c>
       <c r="C68" t="s">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="8"/>
@@ -4789,7 +4792,7 @@
       </c>
       <c r="J68" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="K68" t="str">
         <f t="shared" si="6"/>
@@ -4798,13 +4801,13 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="C69" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="8"/>
@@ -4825,13 +4828,13 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="C70" t="s">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="8"/>
@@ -4852,13 +4855,13 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>196</v>
+        <v>127</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>197</v>
+        <v>128</v>
       </c>
       <c r="C71" t="s">
-        <v>198</v>
+        <v>129</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="8"/>
@@ -4879,13 +4882,13 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>508</v>
-      </c>
-      <c r="B72" t="s">
-        <v>507</v>
+        <v>196</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="C72" t="s">
-        <v>506</v>
+        <v>198</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="8"/>
@@ -4906,13 +4909,13 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>6</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>7</v>
+        <v>508</v>
+      </c>
+      <c r="B73" t="s">
+        <v>507</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>506</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="8"/>
@@ -4933,13 +4936,13 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>166</v>
+        <v>6</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>167</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>168</v>
+        <v>8</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="8"/>
@@ -4960,13 +4963,13 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="C75" t="s">
-        <v>123</v>
+        <v>168</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" si="8"/>
@@ -4987,13 +4990,13 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="C76" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="H76" t="str">
         <f t="shared" si="8"/>
@@ -5014,13 +5017,13 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="C77" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
       <c r="H77" t="str">
         <f t="shared" si="8"/>
@@ -5041,13 +5044,13 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>701</v>
-      </c>
-      <c r="B78" t="s">
-        <v>635</v>
+        <v>208</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="C78" t="s">
-        <v>634</v>
+        <v>210</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="8"/>
@@ -5068,13 +5071,13 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>214</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>215</v>
+        <v>701</v>
+      </c>
+      <c r="B79" t="s">
+        <v>635</v>
       </c>
       <c r="C79" t="s">
-        <v>216</v>
+        <v>634</v>
       </c>
       <c r="H79" t="str">
         <f t="shared" si="8"/>
@@ -5095,13 +5098,13 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="C80" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="8"/>
@@ -5122,20 +5125,20 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>548</v>
-      </c>
-      <c r="B81" t="s">
-        <v>547</v>
+        <v>252</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>253</v>
       </c>
       <c r="C81" t="s">
-        <v>546</v>
+        <v>254</v>
       </c>
       <c r="H81" t="str">
-        <f t="shared" ref="H81:H112" si="10">IF(B81="","X","")</f>
+        <f t="shared" ref="H81:H113" si="10">IF(B81="","X","")</f>
         <v/>
       </c>
       <c r="I81" t="str">
-        <f t="shared" ref="I81:I112" si="11">IF(LEN(A81)&lt;&gt;3,"X","")</f>
+        <f t="shared" ref="I81:I113" si="11">IF(LEN(A81)&lt;&gt;3,"X","")</f>
         <v/>
       </c>
       <c r="J81" t="str">
@@ -5149,13 +5152,13 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>229</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>230</v>
+        <v>548</v>
+      </c>
+      <c r="B82" t="s">
+        <v>547</v>
       </c>
       <c r="C82" t="s">
-        <v>231</v>
+        <v>546</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" si="10"/>
@@ -5176,13 +5179,13 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>268</v>
-      </c>
-      <c r="B83" t="s">
-        <v>695</v>
+        <v>229</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="C83" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" si="10"/>
@@ -5198,18 +5201,18 @@
       </c>
       <c r="K83" t="str">
         <f t="shared" si="6"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>184</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>185</v>
+        <v>268</v>
+      </c>
+      <c r="B84" t="s">
+        <v>695</v>
       </c>
       <c r="C84" t="s">
-        <v>186</v>
+        <v>267</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="10"/>
@@ -5225,18 +5228,18 @@
       </c>
       <c r="K84" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>568</v>
-      </c>
-      <c r="B85" t="s">
-        <v>567</v>
+        <v>184</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="C85" t="s">
-        <v>566</v>
+        <v>186</v>
       </c>
       <c r="H85" t="str">
         <f t="shared" si="10"/>
@@ -5257,13 +5260,13 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>175</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>176</v>
+        <v>568</v>
+      </c>
+      <c r="B86" t="s">
+        <v>567</v>
       </c>
       <c r="C86" t="s">
-        <v>177</v>
+        <v>566</v>
       </c>
       <c r="H86" t="str">
         <f t="shared" si="10"/>
@@ -5278,19 +5281,19 @@
         <v/>
       </c>
       <c r="K86" t="str">
-        <f t="shared" ref="K86:K112" si="12">IF(COUNTIF(B:B,B86) &gt; 1, "X", "")</f>
+        <f t="shared" ref="K86:K113" si="12">IF(COUNTIF(B:B,B86) &gt; 1, "X", "")</f>
         <v/>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>602</v>
-      </c>
-      <c r="B87" t="s">
-        <v>601</v>
+        <v>175</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="C87" t="s">
-        <v>600</v>
+        <v>177</v>
       </c>
       <c r="H87" t="str">
         <f t="shared" si="10"/>
@@ -5311,13 +5314,13 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>187</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>188</v>
+        <v>602</v>
+      </c>
+      <c r="B88" t="s">
+        <v>601</v>
       </c>
       <c r="C88" t="s">
-        <v>189</v>
+        <v>600</v>
       </c>
       <c r="H88" t="str">
         <f t="shared" si="10"/>
@@ -5338,13 +5341,13 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="C89" t="s">
-        <v>132</v>
+        <v>189</v>
       </c>
       <c r="H89" t="str">
         <f t="shared" si="10"/>
@@ -5365,13 +5368,13 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>205</v>
+        <v>130</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>206</v>
+        <v>131</v>
       </c>
       <c r="C90" t="s">
-        <v>207</v>
+        <v>132</v>
       </c>
       <c r="H90" t="str">
         <f t="shared" si="10"/>
@@ -5392,13 +5395,13 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C91" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="H91" t="str">
         <f t="shared" si="10"/>
@@ -5410,7 +5413,7 @@
       </c>
       <c r="J91" t="str">
         <f t="shared" si="13"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="K91" t="str">
         <f t="shared" si="12"/>
@@ -5421,8 +5424,8 @@
       <c r="A92" t="s">
         <v>217</v>
       </c>
-      <c r="B92" t="s">
-        <v>696</v>
+      <c r="B92" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="C92" t="s">
         <v>219</v>
@@ -5446,13 +5449,13 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>220</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
+      </c>
+      <c r="B93" t="s">
+        <v>696</v>
       </c>
       <c r="C93" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H93" t="str">
         <f t="shared" si="10"/>
@@ -5464,7 +5467,7 @@
       </c>
       <c r="J93" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="K93" t="str">
         <f t="shared" si="12"/>
@@ -5473,13 +5476,13 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>220</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>98</v>
+        <v>221</v>
       </c>
       <c r="C94" t="s">
-        <v>99</v>
+        <v>222</v>
       </c>
       <c r="H94" t="str">
         <f t="shared" si="10"/>
@@ -5500,13 +5503,13 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>620</v>
-      </c>
-      <c r="B95" t="s">
-        <v>619</v>
+        <v>97</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>618</v>
+        <v>99</v>
       </c>
       <c r="H95" t="str">
         <f t="shared" si="10"/>
@@ -5527,13 +5530,13 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>51</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>52</v>
+        <v>620</v>
+      </c>
+      <c r="B96" t="s">
+        <v>619</v>
       </c>
       <c r="C96" t="s">
-        <v>53</v>
+        <v>618</v>
       </c>
       <c r="H96" t="str">
         <f t="shared" si="10"/>
@@ -5554,13 +5557,13 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>631</v>
-      </c>
-      <c r="B97" t="s">
-        <v>630</v>
+        <v>51</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C97" t="s">
-        <v>629</v>
+        <v>53</v>
       </c>
       <c r="H97" t="str">
         <f t="shared" si="10"/>
@@ -5581,13 +5584,13 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>517</v>
+        <v>631</v>
       </c>
       <c r="B98" t="s">
-        <v>702</v>
+        <v>630</v>
       </c>
       <c r="C98" t="s">
-        <v>515</v>
+        <v>629</v>
       </c>
       <c r="H98" t="str">
         <f t="shared" si="10"/>
@@ -5608,13 +5611,13 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>657</v>
+        <v>517</v>
       </c>
       <c r="B99" t="s">
-        <v>656</v>
+        <v>702</v>
       </c>
       <c r="C99" t="s">
-        <v>655</v>
+        <v>515</v>
       </c>
       <c r="H99" t="str">
         <f t="shared" si="10"/>
@@ -5635,13 +5638,13 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>27</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>28</v>
+        <v>657</v>
+      </c>
+      <c r="B100" t="s">
+        <v>656</v>
       </c>
       <c r="C100" t="s">
-        <v>29</v>
+        <v>655</v>
       </c>
       <c r="H100" t="str">
         <f t="shared" si="10"/>
@@ -5662,13 +5665,13 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>264</v>
+        <v>27</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C101" t="s">
-        <v>265</v>
+        <v>29</v>
       </c>
       <c r="H101" t="str">
         <f t="shared" si="10"/>
@@ -5689,13 +5692,13 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>669</v>
-      </c>
-      <c r="B102" t="s">
-        <v>704</v>
+        <v>264</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C102" t="s">
-        <v>667</v>
+        <v>265</v>
       </c>
       <c r="H102" t="str">
         <f t="shared" si="10"/>
@@ -5716,13 +5719,13 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>18</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>19</v>
+        <v>669</v>
+      </c>
+      <c r="B103" t="s">
+        <v>704</v>
       </c>
       <c r="C103" t="s">
-        <v>20</v>
+        <v>667</v>
       </c>
       <c r="H103" t="str">
         <f t="shared" si="10"/>
@@ -5743,13 +5746,13 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C104" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H104" t="str">
         <f t="shared" si="10"/>
@@ -5770,13 +5773,13 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>232</v>
+        <v>40</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>233</v>
+        <v>41</v>
       </c>
       <c r="C105" t="s">
-        <v>234</v>
+        <v>42</v>
       </c>
       <c r="H105" t="str">
         <f t="shared" si="10"/>
@@ -5797,13 +5800,13 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C106" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="H106" t="str">
         <f t="shared" si="10"/>
@@ -5815,7 +5818,7 @@
       </c>
       <c r="J106" t="str">
         <f t="shared" si="13"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="K106" t="str">
         <f t="shared" si="12"/>
@@ -5826,8 +5829,8 @@
       <c r="A107" t="s">
         <v>238</v>
       </c>
-      <c r="B107" t="s">
-        <v>561</v>
+      <c r="B107" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="C107" t="s">
         <v>240</v>
@@ -5851,13 +5854,13 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>89</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>90</v>
+        <v>238</v>
+      </c>
+      <c r="B108" t="s">
+        <v>561</v>
       </c>
       <c r="C108" t="s">
-        <v>91</v>
+        <v>240</v>
       </c>
       <c r="H108" t="str">
         <f t="shared" si="10"/>
@@ -5869,7 +5872,7 @@
       </c>
       <c r="J108" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="K108" t="str">
         <f t="shared" si="12"/>
@@ -5878,13 +5881,13 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>193</v>
+        <v>89</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>194</v>
+        <v>90</v>
       </c>
       <c r="C109" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="H109" t="str">
         <f t="shared" si="10"/>
@@ -5905,13 +5908,13 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>682</v>
-      </c>
-      <c r="B110" t="s">
-        <v>393</v>
+        <v>193</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="C110" t="s">
-        <v>681</v>
+        <v>195</v>
       </c>
       <c r="H110" t="str">
         <f t="shared" si="10"/>
@@ -5927,18 +5930,18 @@
       </c>
       <c r="K110" t="str">
         <f t="shared" si="12"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>163</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>164</v>
+        <v>682</v>
+      </c>
+      <c r="B111" t="s">
+        <v>393</v>
       </c>
       <c r="C111" t="s">
-        <v>165</v>
+        <v>681</v>
       </c>
       <c r="H111" t="str">
         <f t="shared" si="10"/>
@@ -5954,18 +5957,18 @@
       </c>
       <c r="K111" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>X</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>107</v>
+        <v>164</v>
       </c>
       <c r="C112" t="s">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="H112" t="str">
         <f t="shared" si="10"/>
@@ -5984,33 +5987,54 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>106</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C113" t="s">
+        <v>108</v>
+      </c>
+      <c r="H113" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="I113" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
       <c r="J113" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-    </row>
-    <row r="114" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="K113" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J114" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="115" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J115" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="116" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J116" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C112">
-    <sortCondition ref="A2:A112"/>
+  <sortState ref="A2:C113">
+    <sortCondition ref="A2:A113"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12298,11 +12322,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -12578,154 +12606,154 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>449</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>10</v>
+        <v>705</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>202</v>
+        <v>9</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>203</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>394</v>
-      </c>
-      <c r="B39" t="s">
-        <v>393</v>
+        <v>75</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>25</v>
+        <v>394</v>
+      </c>
+      <c r="B40" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>24</v>
       </c>
-      <c r="B41" t="s">
-        <v>414</v>
+      <c r="B41" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>142</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>143</v>
+        <v>24</v>
+      </c>
+      <c r="B42" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>172</v>
+        <v>57</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>173</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>145</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>38</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>257</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>148</v>
+        <v>4</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>149</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>200</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>199</v>
       </c>
-      <c r="B52" t="s">
-        <v>438</v>
+      <c r="B52" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>598</v>
+        <v>199</v>
       </c>
       <c r="B53" t="s">
-        <v>697</v>
+        <v>438</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -12733,470 +12761,478 @@
         <v>598</v>
       </c>
       <c r="B54" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>223</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>224</v>
+        <v>598</v>
+      </c>
+      <c r="B55" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>223</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>249</v>
+        <v>21</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>250</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>0</v>
+        <v>249</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>110</v>
+        <v>255</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>109</v>
       </c>
-      <c r="B61" t="s">
-        <v>489</v>
+      <c r="B61" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>211</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>212</v>
+        <v>109</v>
+      </c>
+      <c r="B62" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>259</v>
+        <v>211</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>87</v>
+        <v>212</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>124</v>
+        <v>259</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>15</v>
       </c>
-      <c r="B67" t="s">
-        <v>463</v>
+      <c r="B67" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>118</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>119</v>
+        <v>15</v>
+      </c>
+      <c r="B68" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>128</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>196</v>
+        <v>127</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>197</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>508</v>
-      </c>
-      <c r="B72" t="s">
-        <v>507</v>
+        <v>196</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>6</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>7</v>
+        <v>508</v>
+      </c>
+      <c r="B73" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>166</v>
+        <v>6</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>167</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>122</v>
+        <v>167</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>209</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>701</v>
-      </c>
-      <c r="B78" t="s">
-        <v>635</v>
+        <v>208</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>214</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>215</v>
+        <v>701</v>
+      </c>
+      <c r="B79" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>548</v>
-      </c>
-      <c r="B81" t="s">
-        <v>547</v>
+        <v>252</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>229</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>230</v>
+        <v>548</v>
+      </c>
+      <c r="B82" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>268</v>
-      </c>
-      <c r="B83" t="s">
-        <v>695</v>
+        <v>229</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>184</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>185</v>
+        <v>268</v>
+      </c>
+      <c r="B84" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>568</v>
-      </c>
-      <c r="B85" t="s">
-        <v>567</v>
+        <v>184</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>175</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>176</v>
+        <v>568</v>
+      </c>
+      <c r="B86" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>602</v>
-      </c>
-      <c r="B87" t="s">
-        <v>601</v>
+        <v>175</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>187</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>188</v>
+        <v>602</v>
+      </c>
+      <c r="B88" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>131</v>
+        <v>188</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>205</v>
+        <v>130</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>206</v>
+        <v>131</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>217</v>
       </c>
-      <c r="B92" t="s">
-        <v>696</v>
+      <c r="B92" s="1" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>220</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
+      </c>
+      <c r="B93" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>220</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>98</v>
+        <v>221</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>620</v>
-      </c>
-      <c r="B95" t="s">
-        <v>619</v>
+        <v>97</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>51</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>52</v>
+        <v>620</v>
+      </c>
+      <c r="B96" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>631</v>
-      </c>
-      <c r="B97" t="s">
-        <v>630</v>
+        <v>51</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>517</v>
+        <v>631</v>
       </c>
       <c r="B98" t="s">
-        <v>702</v>
+        <v>630</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>657</v>
+        <v>517</v>
       </c>
       <c r="B99" t="s">
-        <v>656</v>
+        <v>702</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>27</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>28</v>
+        <v>657</v>
+      </c>
+      <c r="B100" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>264</v>
+        <v>27</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>669</v>
-      </c>
-      <c r="B102" t="s">
-        <v>704</v>
+        <v>264</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>18</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>19</v>
+        <v>669</v>
+      </c>
+      <c r="B103" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>232</v>
+        <v>40</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>233</v>
+        <v>41</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>238</v>
       </c>
-      <c r="B107" t="s">
-        <v>561</v>
+      <c r="B107" s="1" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>89</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>90</v>
+        <v>238</v>
+      </c>
+      <c r="B108" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>193</v>
+        <v>89</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>194</v>
+        <v>90</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>682</v>
-      </c>
-      <c r="B110" t="s">
-        <v>393</v>
+        <v>193</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>163</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>164</v>
+        <v>682</v>
+      </c>
+      <c r="B111" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>163</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>106</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>107</v>
       </c>
     </row>
